--- a/fcst_results/with_outlier_detection_series_HOU-Dom_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_HOU-Dom_results.xlsx
@@ -469,13 +469,13 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>475941.3728589365</v>
+        <v>482593.8807031472</v>
       </c>
       <c r="C2" t="n">
         <v>448999.9631946926</v>
       </c>
       <c r="D2" t="n">
-        <v>473696.2553869162</v>
+        <v>479794.3875774426</v>
       </c>
     </row>
     <row r="3">
@@ -483,13 +483,13 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>476071.2073963715</v>
+        <v>479012.2045081173</v>
       </c>
       <c r="C3" t="n">
         <v>437542.8671193378</v>
       </c>
       <c r="D3" t="n">
-        <v>472860.5123732854</v>
+        <v>475556.4263923856</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>484888.2375056588</v>
+        <v>496300.786341944</v>
       </c>
       <c r="C4" t="n">
         <v>449225.6170359887</v>
       </c>
       <c r="D4" t="n">
-        <v>481916.3524665196</v>
+        <v>492377.8555664477</v>
       </c>
     </row>
     <row r="5">
@@ -511,13 +511,13 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>437452.327220741</v>
+        <v>448322.5965143376</v>
       </c>
       <c r="C5" t="n">
         <v>400723.6432085748</v>
       </c>
       <c r="D5" t="n">
-        <v>434391.6035530604</v>
+        <v>444356.0170721907</v>
       </c>
     </row>
     <row r="6">
@@ -525,13 +525,13 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>416199.592576333</v>
+        <v>427811.0924259588</v>
       </c>
       <c r="C6" t="n">
         <v>382968.6830410729</v>
       </c>
       <c r="D6" t="n">
-        <v>413430.3501150613</v>
+        <v>424074.2249772183</v>
       </c>
     </row>
     <row r="7">
@@ -539,13 +539,13 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>451851.2946434442</v>
+        <v>475915.6031606388</v>
       </c>
       <c r="C7" t="n">
         <v>453616.3383678866</v>
       </c>
       <c r="D7" t="n">
-        <v>451998.3816204811</v>
+        <v>474057.3310945761</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>447712.867790445</v>
+        <v>441350.5662599335</v>
       </c>
       <c r="C8" t="n">
         <v>423336.9851906988</v>
       </c>
       <c r="D8" t="n">
-        <v>445681.5442404661</v>
+        <v>439849.434504164</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +567,13 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>474546.920369216</v>
+        <v>467645.0751843594</v>
       </c>
       <c r="C9" t="n">
         <v>449469.6751133766</v>
       </c>
       <c r="D9" t="n">
-        <v>472457.1499312294</v>
+        <v>466130.4585117775</v>
       </c>
     </row>
     <row r="10">
@@ -581,13 +581,13 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>493903.3963272285</v>
+        <v>503308.5326785234</v>
       </c>
       <c r="C10" t="n">
         <v>477593.2635158155</v>
       </c>
       <c r="D10" t="n">
-        <v>492544.2185929441</v>
+        <v>501165.593581631</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>503399.1920214487</v>
+        <v>511264.3941859092</v>
       </c>
       <c r="C11" t="n">
         <v>483406.3230119236</v>
       </c>
       <c r="D11" t="n">
-        <v>501733.1196039883</v>
+        <v>508942.8882547438</v>
       </c>
     </row>
     <row r="12">
@@ -609,13 +609,13 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>469092.7629673312</v>
+        <v>468785.7412514834</v>
       </c>
       <c r="C12" t="n">
         <v>437017.785668045</v>
       </c>
       <c r="D12" t="n">
-        <v>466419.8481923906</v>
+        <v>466138.4116195302</v>
       </c>
     </row>
     <row r="13">
@@ -623,13 +623,13 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>446090.2017334021</v>
+        <v>441616.324971268</v>
       </c>
       <c r="C13" t="n">
         <v>384715.9663374752</v>
       </c>
       <c r="D13" t="n">
-        <v>440975.6821170748</v>
+        <v>436874.6284184519</v>
       </c>
     </row>
     <row r="14">
@@ -637,13 +637,13 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>476422.7025118289</v>
+        <v>485363.1332875211</v>
       </c>
       <c r="C14" t="n">
         <v>439518.3915709725</v>
       </c>
       <c r="D14" t="n">
-        <v>473347.3432667574</v>
+        <v>481542.7381444754</v>
       </c>
     </row>
     <row r="15">
@@ -651,13 +651,13 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>474758.2304039822</v>
+        <v>481940.4274856345</v>
       </c>
       <c r="C15" t="n">
         <v>427680.5929548584</v>
       </c>
       <c r="D15" t="n">
-        <v>470835.0939498886</v>
+        <v>477418.7746080698</v>
       </c>
     </row>
     <row r="16">
@@ -665,13 +665,13 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>482183.4170653643</v>
+        <v>498585.2524373799</v>
       </c>
       <c r="C16" t="n">
         <v>439159.770296811</v>
       </c>
       <c r="D16" t="n">
-        <v>478598.1131679849</v>
+        <v>493633.1289256657</v>
       </c>
     </row>
     <row r="17">
@@ -679,13 +679,13 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>437938.3275992719</v>
+        <v>452463.2261637446</v>
       </c>
       <c r="C17" t="n">
         <v>389724.9412408409</v>
       </c>
       <c r="D17" t="n">
-        <v>433920.5454027359</v>
+        <v>447235.0357535026</v>
       </c>
     </row>
     <row r="18">
@@ -693,13 +693,13 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>418125.209750586</v>
+        <v>432752.8502254629</v>
       </c>
       <c r="C18" t="n">
         <v>372095.5352176824</v>
       </c>
       <c r="D18" t="n">
-        <v>414289.4035395106</v>
+        <v>427698.0739748145</v>
       </c>
     </row>
     <row r="19">
@@ -707,13 +707,13 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>451094.0543323429</v>
+        <v>479026.1056647842</v>
       </c>
       <c r="C19" t="n">
         <v>441874.583367976</v>
       </c>
       <c r="D19" t="n">
-        <v>450325.7650853123</v>
+        <v>475930.1454733835</v>
       </c>
     </row>
     <row r="20">
@@ -721,13 +721,13 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>447238.7861574884</v>
+        <v>445797.6534053767</v>
       </c>
       <c r="C20" t="n">
         <v>414780.8894652357</v>
       </c>
       <c r="D20" t="n">
-        <v>444533.961433134</v>
+        <v>443212.9230770316</v>
       </c>
     </row>
     <row r="21">
@@ -735,13 +735,13 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>472084.3713869698</v>
+        <v>471094.1321156229</v>
       </c>
       <c r="C21" t="n">
         <v>440486.4178112474</v>
       </c>
       <c r="D21" t="n">
-        <v>469451.2085889929</v>
+        <v>468543.4892569249</v>
       </c>
     </row>
     <row r="22">
@@ -749,13 +749,13 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>490009.2938576797</v>
+        <v>505399.1641754291</v>
       </c>
       <c r="C22" t="n">
         <v>466188.0123422284</v>
       </c>
       <c r="D22" t="n">
-        <v>488024.1870647254</v>
+        <v>502131.5681893291</v>
       </c>
     </row>
     <row r="23">
@@ -763,13 +763,13 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>498803.0921803348</v>
+        <v>513057.7965767194</v>
       </c>
       <c r="C23" t="n">
         <v>472197.8672683028</v>
       </c>
       <c r="D23" t="n">
-        <v>496585.9901043322</v>
+        <v>509652.8024676847</v>
       </c>
     </row>
     <row r="24">
@@ -777,13 +777,13 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>467026.4581977816</v>
+        <v>472214.5466970242</v>
       </c>
       <c r="C24" t="n">
         <v>425827.5737661824</v>
       </c>
       <c r="D24" t="n">
-        <v>463593.2178284816</v>
+        <v>468348.965619454</v>
       </c>
     </row>
     <row r="25">
@@ -791,13 +791,13 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>445720.2998557267</v>
+        <v>446092.7831146414</v>
       </c>
       <c r="C25" t="n">
         <v>375122.2250996434</v>
       </c>
       <c r="D25" t="n">
-        <v>439837.1269593864</v>
+        <v>440178.5699467249</v>
       </c>
     </row>
     <row r="26">
@@ -805,13 +805,13 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>473815.3519103018</v>
+        <v>488167.7226727538</v>
       </c>
       <c r="C26" t="n">
         <v>430027.836477469</v>
       </c>
       <c r="D26" t="n">
-        <v>470166.3922908991</v>
+        <v>483322.73215648</v>
       </c>
     </row>
     <row r="27">
@@ -819,13 +819,13 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>472273.6045976502</v>
+        <v>484880.9039528659</v>
       </c>
       <c r="C27" t="n">
         <v>417802.830610753</v>
       </c>
       <c r="D27" t="n">
-        <v>467734.3734320755</v>
+        <v>479291.0645076898</v>
       </c>
     </row>
     <row r="28">
@@ -833,13 +833,13 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>479151.0874686522</v>
+        <v>500891.7034145675</v>
       </c>
       <c r="C28" t="n">
         <v>429053.7014924617</v>
       </c>
       <c r="D28" t="n">
-        <v>474976.3053039697</v>
+        <v>494905.203254392</v>
       </c>
     </row>
     <row r="29">
@@ -847,13 +847,13 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>438169.5220081036</v>
+        <v>456541.5244701207</v>
       </c>
       <c r="C29" t="n">
         <v>378714.7245035926</v>
       </c>
       <c r="D29" t="n">
-        <v>433214.9555493942</v>
+        <v>450055.9578062433</v>
       </c>
     </row>
     <row r="30">
@@ -861,13 +861,13 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>419817.8227747418</v>
+        <v>437589.9878486742</v>
       </c>
       <c r="C30" t="n">
         <v>361237.5727555279</v>
       </c>
       <c r="D30" t="n">
-        <v>414936.1352731406</v>
+        <v>431227.286590912</v>
       </c>
     </row>
     <row r="31">
@@ -875,13 +875,13 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>450354.873276978</v>
+        <v>482092.0095759913</v>
       </c>
       <c r="C31" t="n">
         <v>435856.1491957253</v>
       </c>
       <c r="D31" t="n">
-        <v>449146.646270207</v>
+        <v>478239.0212109691</v>
       </c>
     </row>
     <row r="32">
@@ -889,13 +889,13 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>446783.9703491495</v>
+        <v>450139.9372026427</v>
       </c>
       <c r="C32" t="n">
         <v>399282.052492075</v>
       </c>
       <c r="D32" t="n">
-        <v>442825.4771943933</v>
+        <v>445901.7801434287</v>
       </c>
     </row>
     <row r="33">
@@ -903,13 +903,13 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>469796.936908261</v>
+        <v>474468.7618099692</v>
       </c>
       <c r="C33" t="n">
         <v>425996.8733241866</v>
       </c>
       <c r="D33" t="n">
-        <v>466146.9316095882</v>
+        <v>470429.4377694873</v>
       </c>
     </row>
     <row r="34">
@@ -917,13 +917,13 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>486399.7111809888</v>
+        <v>507460.5082730801</v>
       </c>
       <c r="C34" t="n">
         <v>458926.1626578153</v>
       </c>
       <c r="D34" t="n">
-        <v>484110.2488040577</v>
+        <v>503415.979471808</v>
       </c>
     </row>
     <row r="35">
@@ -931,13 +931,13 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>494544.8760443426</v>
+        <v>514827.2002479465</v>
       </c>
       <c r="C35" t="n">
         <v>464462.3237533479</v>
       </c>
       <c r="D35" t="n">
-        <v>492037.9966867598</v>
+        <v>510630.12720673</v>
       </c>
     </row>
     <row r="36">
@@ -945,13 +945,13 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>465112.0968767363</v>
+        <v>475551.2816677869</v>
       </c>
       <c r="C36" t="n">
         <v>418181.8795698219</v>
       </c>
       <c r="D36" t="n">
-        <v>461201.2454344934</v>
+        <v>470770.4981596232</v>
       </c>
     </row>
     <row r="37">
@@ -959,13 +959,13 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>445377.4876794575</v>
+        <v>450432.2774135823</v>
       </c>
       <c r="C37" t="n">
         <v>362768.8338756828</v>
       </c>
       <c r="D37" t="n">
-        <v>438493.4331958096</v>
+        <v>443126.9904520906</v>
       </c>
     </row>
     <row r="38">
@@ -973,13 +973,13 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>471400.2395761514</v>
+        <v>490895.2839687266</v>
       </c>
       <c r="C38" t="n">
         <v>417158.8033915573</v>
       </c>
       <c r="D38" t="n">
-        <v>466880.1198941019</v>
+        <v>484750.5772539625</v>
       </c>
     </row>
     <row r="39">
@@ -987,13 +987,13 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>469972.2120442463</v>
+        <v>487735.4815588921</v>
       </c>
       <c r="C39" t="n">
         <v>406075.1854296692</v>
       </c>
       <c r="D39" t="n">
-        <v>464647.4598263649</v>
+        <v>480930.4568814568</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['LS2001Sep', 'AO2008Sep', 'LS2017Aug', 'LS2017Oct', 'AO2020Mar', 'LS2020Mar', 'LS2020Jun', 'LS2020Aug', 'LS2020Dec', 'LS2021Mar']</t>
+          <t>['AO2008Sep', 'AO2020Mar']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1224,19 +1224,19 @@
         <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>186228.9599455674</v>
+        <v>154810.6046477208</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6884846287244766</v>
+        <v>0.5726038916080221</v>
       </c>
       <c r="M2" t="n">
-        <v>119743.9345197448</v>
+        <v>87068.45876038625</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.053911092025689</v>
+        <v>-0.4193471119565642</v>
       </c>
       <c r="O2" t="n">
-        <v>634885.2552753284</v>
+        <v>569668.0451821581</v>
       </c>
       <c r="P2" t="n">
         <v>438059</v>
@@ -1245,19 +1245,19 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>78330.95301920731</v>
+        <v>112767.2511112216</v>
       </c>
       <c r="S2" t="n">
-        <v>34720.17240971723</v>
+        <v>44709.92027999632</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05604129169108975</v>
+        <v>0.09117110057062709</v>
       </c>
       <c r="U2" t="n">
-        <v>21169.40974081472</v>
+        <v>25171.09762839858</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8778179923260453</v>
+        <v>0.79739446676189</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
@@ -1266,16 +1266,16 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>186228.9599455674</v>
+        <v>154810.6046477208</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.6884846287244766</v>
+        <v>0.5726038916080221</v>
       </c>
       <c r="AE2" t="n">
-        <v>119743.9345197448</v>
+        <v>87068.45876038625</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.053911092025689</v>
+        <v>-0.4193471119565642</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -1313,19 +1313,19 @@
         <v>74</v>
       </c>
       <c r="K3" t="n">
-        <v>187053.2554147721</v>
+        <v>157756.323289756</v>
       </c>
       <c r="L3" t="n">
-        <v>0.690579021242116</v>
+        <v>0.5813986080026676</v>
       </c>
       <c r="M3" t="n">
-        <v>119984.6741962589</v>
+        <v>88495.01563386478</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.072133569258436</v>
+        <v>-0.4738753534517468</v>
       </c>
       <c r="O3" t="n">
-        <v>635456.2177323109</v>
+        <v>575013.7343220212</v>
       </c>
       <c r="P3" t="n">
         <v>438059</v>
@@ -1334,19 +1334,19 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>37644.8808063844</v>
+        <v>92457.40571376709</v>
       </c>
       <c r="S3" t="n">
-        <v>32966.16831240935</v>
+        <v>43099.05827072069</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05818533059036962</v>
+        <v>0.09125496992653782</v>
       </c>
       <c r="U3" t="n">
-        <v>20306.31091630186</v>
+        <v>23971.13842869685</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8898510265041986</v>
+        <v>0.8117308887335387</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -1363,16 +1363,16 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>187053.2554147721</v>
+        <v>157756.323289756</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.690579021242116</v>
+        <v>0.5813986080026676</v>
       </c>
       <c r="AE3" t="n">
-        <v>119984.6741962589</v>
+        <v>88495.01563386478</v>
       </c>
       <c r="AF3" t="n">
-        <v>-1.072133569258436</v>
+        <v>-0.4738753534517468</v>
       </c>
       <c r="AG3" t="b">
         <v>0</v>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['LS2001Sep', 'AO2008Sep', 'LS2017Aug', 'LS2017Oct', 'AO2020Mar', 'LS2020Mar', 'LS2020Jun', 'LS2020Aug', 'LS2020Dec', 'LS2021Mar']</t>
+          <t>['AO2008Sep', 'AO2020Mar']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1416,19 +1416,19 @@
         <v>74</v>
       </c>
       <c r="K4" t="n">
-        <v>197066.2196017549</v>
+        <v>194692.457044406</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7147122172195598</v>
+        <v>0.7058024296588619</v>
       </c>
       <c r="M4" t="n">
-        <v>123233.5226951285</v>
+        <v>120406.1452592326</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.299913886841647</v>
+        <v>-1.244840332765609</v>
       </c>
       <c r="O4" t="n">
-        <v>641736.8047591193</v>
+        <v>633816.314860516</v>
       </c>
       <c r="P4" t="n">
         <v>438059</v>
@@ -1437,7 +1437,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>130879.8253590394</v>
+        <v>141824.6474265231</v>
       </c>
       <c r="S4" t="n">
         <v>70464.43395636955</v>
@@ -1458,16 +1458,16 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>197066.2196017549</v>
+        <v>194692.457044406</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7147122172195598</v>
+        <v>0.7058024296588619</v>
       </c>
       <c r="AE4" t="n">
-        <v>123233.5226951285</v>
+        <v>120406.1452592326</v>
       </c>
       <c r="AF4" t="n">
-        <v>-1.299913886841647</v>
+        <v>-1.244840332765609</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
@@ -4751,7 +4751,7 @@
         <v>44470</v>
       </c>
       <c r="B251" t="n">
-        <v>475941.3728589365</v>
+        <v>482593.8807031472</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44501</v>
       </c>
       <c r="B252" t="n">
-        <v>476071.2073963715</v>
+        <v>479012.2045081173</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>44531</v>
       </c>
       <c r="B253" t="n">
-        <v>484888.2375056588</v>
+        <v>496300.786341944</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44562</v>
       </c>
       <c r="B254" t="n">
-        <v>437452.327220741</v>
+        <v>448322.5965143376</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44593</v>
       </c>
       <c r="B255" t="n">
-        <v>416199.592576333</v>
+        <v>427811.0924259588</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44621</v>
       </c>
       <c r="B256" t="n">
-        <v>451851.2946434442</v>
+        <v>475915.6031606388</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>44652</v>
       </c>
       <c r="B257" t="n">
-        <v>447712.867790445</v>
+        <v>441350.5662599335</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44682</v>
       </c>
       <c r="B258" t="n">
-        <v>474546.920369216</v>
+        <v>467645.0751843594</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44713</v>
       </c>
       <c r="B259" t="n">
-        <v>493903.3963272285</v>
+        <v>503308.5326785234</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44743</v>
       </c>
       <c r="B260" t="n">
-        <v>503399.1920214487</v>
+        <v>511264.3941859092</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>44774</v>
       </c>
       <c r="B261" t="n">
-        <v>469092.7629673312</v>
+        <v>468785.7412514834</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44805</v>
       </c>
       <c r="B262" t="n">
-        <v>446090.2017334021</v>
+        <v>441616.324971268</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>44835</v>
       </c>
       <c r="B263" t="n">
-        <v>476422.7025118289</v>
+        <v>485363.1332875211</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>44866</v>
       </c>
       <c r="B264" t="n">
-        <v>474758.2304039822</v>
+        <v>481940.4274856345</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44896</v>
       </c>
       <c r="B265" t="n">
-        <v>482183.4170653643</v>
+        <v>498585.2524373799</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>44927</v>
       </c>
       <c r="B266" t="n">
-        <v>437938.3275992719</v>
+        <v>452463.2261637446</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44958</v>
       </c>
       <c r="B267" t="n">
-        <v>418125.209750586</v>
+        <v>432752.8502254629</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>44986</v>
       </c>
       <c r="B268" t="n">
-        <v>451094.0543323429</v>
+        <v>479026.1056647842</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>45017</v>
       </c>
       <c r="B269" t="n">
-        <v>447238.7861574884</v>
+        <v>445797.6534053767</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>45047</v>
       </c>
       <c r="B270" t="n">
-        <v>472084.3713869698</v>
+        <v>471094.1321156229</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         <v>45078</v>
       </c>
       <c r="B271" t="n">
-        <v>490009.2938576797</v>
+        <v>505399.1641754291</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45108</v>
       </c>
       <c r="B272" t="n">
-        <v>498803.0921803348</v>
+        <v>513057.7965767194</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45139</v>
       </c>
       <c r="B273" t="n">
-        <v>467026.4581977816</v>
+        <v>472214.5466970242</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>45170</v>
       </c>
       <c r="B274" t="n">
-        <v>445720.2998557267</v>
+        <v>446092.7831146414</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45200</v>
       </c>
       <c r="B275" t="n">
-        <v>473815.3519103018</v>
+        <v>488167.7226727538</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>45231</v>
       </c>
       <c r="B276" t="n">
-        <v>472273.6045976502</v>
+        <v>484880.9039528659</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>45261</v>
       </c>
       <c r="B277" t="n">
-        <v>479151.0874686522</v>
+        <v>500891.7034145675</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>45292</v>
       </c>
       <c r="B278" t="n">
-        <v>438169.5220081036</v>
+        <v>456541.5244701207</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>45323</v>
       </c>
       <c r="B279" t="n">
-        <v>419817.8227747418</v>
+        <v>437589.9878486742</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>45352</v>
       </c>
       <c r="B280" t="n">
-        <v>450354.873276978</v>
+        <v>482092.0095759913</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>45383</v>
       </c>
       <c r="B281" t="n">
-        <v>446783.9703491495</v>
+        <v>450139.9372026427</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>45413</v>
       </c>
       <c r="B282" t="n">
-        <v>469796.936908261</v>
+        <v>474468.7618099692</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>45444</v>
       </c>
       <c r="B283" t="n">
-        <v>486399.7111809888</v>
+        <v>507460.5082730801</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>45474</v>
       </c>
       <c r="B284" t="n">
-        <v>494544.8760443426</v>
+        <v>514827.2002479465</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>45505</v>
       </c>
       <c r="B285" t="n">
-        <v>465112.0968767363</v>
+        <v>475551.2816677869</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>45536</v>
       </c>
       <c r="B286" t="n">
-        <v>445377.4876794575</v>
+        <v>450432.2774135823</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45566</v>
       </c>
       <c r="B287" t="n">
-        <v>471400.2395761514</v>
+        <v>490895.2839687266</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>45597</v>
       </c>
       <c r="B288" t="n">
-        <v>469972.2120442463</v>
+        <v>487735.4815588921</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -5294,13 +5294,13 @@
         <v>503108</v>
       </c>
       <c r="C2" t="n">
-        <v>552294.9610416541</v>
+        <v>544815.5387638258</v>
       </c>
       <c r="D2" t="n">
-        <v>550768.6172809269</v>
+        <v>543809.4761986798</v>
       </c>
       <c r="E2" t="n">
-        <v>533978.8359129273</v>
+        <v>532742.7879820741</v>
       </c>
     </row>
     <row r="3">
@@ -5311,13 +5311,13 @@
         <v>469594</v>
       </c>
       <c r="C3" t="n">
-        <v>520420.2485844077</v>
+        <v>506859.9720596262</v>
       </c>
       <c r="D3" t="n">
-        <v>517550.5248617821</v>
+        <v>504888.2350282785</v>
       </c>
       <c r="E3" t="n">
-        <v>485983.5639129011</v>
+        <v>483199.1276834542</v>
       </c>
     </row>
     <row r="4">
@@ -5328,13 +5328,13 @@
         <v>521638</v>
       </c>
       <c r="C4" t="n">
-        <v>553222.6907497841</v>
+        <v>536415.3800999533</v>
       </c>
       <c r="D4" t="n">
-        <v>551078.9316738117</v>
+        <v>535410.5556176971</v>
       </c>
       <c r="E4" t="n">
-        <v>527497.5818381162</v>
+        <v>524357.4863128787</v>
       </c>
     </row>
     <row r="5">
@@ -5345,13 +5345,13 @@
         <v>520563</v>
       </c>
       <c r="C5" t="n">
-        <v>539190.1302305243</v>
+        <v>518658.1088585328</v>
       </c>
       <c r="D5" t="n">
-        <v>537206.842686929</v>
+        <v>518125.1090036361</v>
       </c>
       <c r="E5" t="n">
-        <v>515390.6797073806</v>
+        <v>512262.110599772</v>
       </c>
     </row>
     <row r="6">
@@ -5362,13 +5362,13 @@
         <v>534069</v>
       </c>
       <c r="C6" t="n">
-        <v>553572.401281437</v>
+        <v>530573.7393645504</v>
       </c>
       <c r="D6" t="n">
-        <v>551292.1369431599</v>
+        <v>529998.879729895</v>
       </c>
       <c r="E6" t="n">
-        <v>526209.2292221112</v>
+        <v>523675.4237486855</v>
       </c>
     </row>
     <row r="7">
@@ -5379,13 +5379,13 @@
         <v>469273</v>
       </c>
       <c r="C7" t="n">
-        <v>511601.524105004</v>
+        <v>485509.12982874</v>
       </c>
       <c r="D7" t="n">
-        <v>509603.3037548597</v>
+        <v>485424.5103084031</v>
       </c>
       <c r="E7" t="n">
-        <v>487622.8799032726</v>
+        <v>484493.6955846964</v>
       </c>
     </row>
     <row r="8">
@@ -5396,13 +5396,13 @@
         <v>440613</v>
       </c>
       <c r="C8" t="n">
-        <v>498672.488309282</v>
+        <v>470542.8675087237</v>
       </c>
       <c r="D8" t="n">
-        <v>497512.0602407028</v>
+        <v>471561.1278756417</v>
       </c>
       <c r="E8" t="n">
-        <v>484747.3514863318</v>
+        <v>482761.9919117392</v>
       </c>
     </row>
     <row r="9">
@@ -5413,13 +5413,13 @@
         <v>514619</v>
       </c>
       <c r="C9" t="n">
-        <v>562757.5834623162</v>
+        <v>534948.2886302769</v>
       </c>
       <c r="D9" t="n">
-        <v>562679.8873986633</v>
+        <v>537066.3947438514</v>
       </c>
       <c r="E9" t="n">
-        <v>561825.2306984822</v>
+        <v>560365.5619931706</v>
       </c>
     </row>
     <row r="10">
@@ -5430,13 +5430,13 @@
         <v>493803</v>
       </c>
       <c r="C10" t="n">
-        <v>549381.8702845423</v>
+        <v>520089.0331895133</v>
       </c>
       <c r="D10" t="n">
-        <v>548376.6706169246</v>
+        <v>521397.7538459704</v>
       </c>
       <c r="E10" t="n">
-        <v>537319.4742731305</v>
+        <v>535793.6810669997</v>
       </c>
     </row>
     <row r="11">
@@ -5447,13 +5447,13 @@
         <v>511878</v>
       </c>
       <c r="C11" t="n">
-        <v>567153.9156225082</v>
+        <v>537495.9107892483</v>
       </c>
       <c r="D11" t="n">
-        <v>566715.293945847</v>
+        <v>539414.24820657</v>
       </c>
       <c r="E11" t="n">
-        <v>561890.4555025742</v>
+        <v>560515.9597971104</v>
       </c>
     </row>
     <row r="12">
@@ -5464,13 +5464,13 @@
         <v>551009</v>
       </c>
       <c r="C12" t="n">
-        <v>590882.7730873376</v>
+        <v>561126.3039060112</v>
       </c>
       <c r="D12" t="n">
-        <v>590573.9844977772</v>
+        <v>563242.0488632183</v>
       </c>
       <c r="E12" t="n">
-        <v>587177.3100126138</v>
+        <v>586515.2433924967</v>
       </c>
     </row>
     <row r="13">
@@ -5481,13 +5481,13 @@
         <v>540798</v>
       </c>
       <c r="C13" t="n">
-        <v>601028.7754226211</v>
+        <v>570883.1205996785</v>
       </c>
       <c r="D13" t="n">
-        <v>600234.0501458978</v>
+        <v>572638.8924189991</v>
       </c>
       <c r="E13" t="n">
-        <v>591492.0721019432</v>
+        <v>591952.3824315259</v>
       </c>
     </row>
     <row r="14">
@@ -5498,13 +5498,13 @@
         <v>491085</v>
       </c>
       <c r="C14" t="n">
-        <v>572885.2045806793</v>
+        <v>539899.3072547521</v>
       </c>
       <c r="D14" t="n">
-        <v>571643.0771439765</v>
+        <v>541542.355997421</v>
       </c>
       <c r="E14" t="n">
-        <v>557979.6753402452</v>
+        <v>559615.8921667777</v>
       </c>
     </row>
     <row r="15">
@@ -5515,13 +5515,13 @@
         <v>481068</v>
       </c>
       <c r="C15" t="n">
-        <v>544343.6710156034</v>
+        <v>508520.6669965721</v>
       </c>
       <c r="D15" t="n">
-        <v>541108.2208332426</v>
+        <v>507789.3573123318</v>
       </c>
       <c r="E15" t="n">
-        <v>505518.2688272743</v>
+        <v>499744.9507856898</v>
       </c>
     </row>
     <row r="16">
@@ -5532,13 +5532,13 @@
         <v>505115</v>
       </c>
       <c r="C16" t="n">
-        <v>574177.01278107</v>
+        <v>538185.8045352474</v>
       </c>
       <c r="D16" t="n">
-        <v>573308.9695583147</v>
+        <v>539931.6782441246</v>
       </c>
       <c r="E16" t="n">
-        <v>563760.4941080062</v>
+        <v>559136.289041775</v>
       </c>
     </row>
     <row r="17">
@@ -5549,13 +5549,13 @@
         <v>531836</v>
       </c>
       <c r="C17" t="n">
-        <v>561465.6891737087</v>
+        <v>524069.6291615664</v>
       </c>
       <c r="D17" t="n">
-        <v>560071.6000018523</v>
+        <v>525434.4607818698</v>
       </c>
       <c r="E17" t="n">
-        <v>544736.6191114318</v>
+        <v>540447.6086052086</v>
       </c>
     </row>
     <row r="18">
@@ -5566,13 +5566,13 @@
         <v>536638</v>
       </c>
       <c r="C18" t="n">
-        <v>574514.9424426797</v>
+        <v>536651.3987213523</v>
       </c>
       <c r="D18" t="n">
-        <v>573115.8105608474</v>
+        <v>538021.0345326837</v>
       </c>
       <c r="E18" t="n">
-        <v>557725.3598606922</v>
+        <v>553087.028457328</v>
       </c>
     </row>
     <row r="19">
@@ -5583,13 +5583,13 @@
         <v>469950</v>
       </c>
       <c r="C19" t="n">
-        <v>536445.5925787793</v>
+        <v>496807.8345798907</v>
       </c>
       <c r="D19" t="n">
-        <v>534370.5474601961</v>
+        <v>497968.0771867136</v>
       </c>
       <c r="E19" t="n">
-        <v>511545.0511557811</v>
+        <v>510730.7458617655</v>
       </c>
     </row>
     <row r="20">
@@ -5600,13 +5600,13 @@
         <v>447859</v>
       </c>
       <c r="C20" t="n">
-        <v>524718.3402016755</v>
+        <v>484205.2841387936</v>
       </c>
       <c r="D20" t="n">
-        <v>522239.5933430822</v>
+        <v>484990.6012453538</v>
       </c>
       <c r="E20" t="n">
-        <v>494973.3778985568</v>
+        <v>493629.0894175167</v>
       </c>
     </row>
     <row r="21">
@@ -5617,13 +5617,13 @@
         <v>538969</v>
       </c>
       <c r="C21" t="n">
-        <v>582847.4502149271</v>
+        <v>543938.8169713389</v>
       </c>
       <c r="D21" t="n">
-        <v>583022.1459488276</v>
+        <v>547201.2627839085</v>
       </c>
       <c r="E21" t="n">
-        <v>584943.7990217337</v>
+        <v>583088.166722175</v>
       </c>
     </row>
     <row r="22">
@@ -5634,13 +5634,13 @@
         <v>524914</v>
       </c>
       <c r="C22" t="n">
-        <v>570714.8736600105</v>
+        <v>531043.7932406405</v>
       </c>
       <c r="D22" t="n">
-        <v>570031.5355081749</v>
+        <v>533523.4323389539</v>
       </c>
       <c r="E22" t="n">
-        <v>562514.8158379834</v>
+        <v>560799.4624204012</v>
       </c>
     </row>
     <row r="23">
@@ -5651,13 +5651,13 @@
         <v>558985</v>
       </c>
       <c r="C23" t="n">
-        <v>586835.1999330925</v>
+        <v>547504.5778856401</v>
       </c>
       <c r="D23" t="n">
-        <v>586930.285250078</v>
+        <v>550750.8907153936</v>
       </c>
       <c r="E23" t="n">
-        <v>587976.2237369188</v>
+        <v>586460.3318426829</v>
       </c>
     </row>
     <row r="24">
@@ -5668,13 +5668,13 @@
         <v>592534</v>
       </c>
       <c r="C24" t="n">
-        <v>608358.7153213073</v>
+        <v>569543.6703899917</v>
       </c>
       <c r="D24" t="n">
-        <v>608752.3938502086</v>
+        <v>573078.3735871111</v>
       </c>
       <c r="E24" t="n">
-        <v>613082.8576681231</v>
+        <v>611960.1087554251</v>
       </c>
     </row>
     <row r="25">
@@ -5685,13 +5685,13 @@
         <v>594093</v>
       </c>
       <c r="C25" t="n">
-        <v>617561.7557927285</v>
+        <v>578812.7227489194</v>
       </c>
       <c r="D25" t="n">
-        <v>617786.0410229689</v>
+        <v>582216.5396831899</v>
       </c>
       <c r="E25" t="n">
-        <v>620253.1785556135</v>
+        <v>619658.5259601673</v>
       </c>
     </row>
     <row r="26">
@@ -5702,13 +5702,13 @@
         <v>451723</v>
       </c>
       <c r="C26" t="n">
-        <v>592033.8275910326</v>
+        <v>550770.5361684855</v>
       </c>
       <c r="D26" t="n">
-        <v>591502.5679328805</v>
+        <v>553667.9240490518</v>
       </c>
       <c r="E26" t="n">
-        <v>585658.7116932061</v>
+        <v>585539.1907352818</v>
       </c>
     </row>
     <row r="27">
@@ -5719,13 +5719,13 @@
         <v>401051</v>
       </c>
       <c r="C27" t="n">
-        <v>566144.9230139699</v>
+        <v>522311.1054146218</v>
       </c>
       <c r="D27" t="n">
-        <v>563526.8592931494</v>
+        <v>522880.5921948446</v>
       </c>
       <c r="E27" t="n">
-        <v>534728.1583641251</v>
+        <v>529144.9467772966</v>
       </c>
     </row>
     <row r="28">
@@ -5736,13 +5736,13 @@
         <v>554974</v>
       </c>
       <c r="C28" t="n">
-        <v>593205.5760985925</v>
+        <v>549606.3403560681</v>
       </c>
       <c r="D28" t="n">
-        <v>592722.7023544009</v>
+        <v>552347.8156992956</v>
       </c>
       <c r="E28" t="n">
-        <v>587411.091168294</v>
+        <v>582504.0444747987</v>
       </c>
     </row>
     <row r="29">
@@ -5753,13 +5753,13 @@
         <v>579797</v>
       </c>
       <c r="C29" t="n">
-        <v>581675.6334902551</v>
+        <v>536845.4640245601</v>
       </c>
       <c r="D29" t="n">
-        <v>580752.8927788689</v>
+        <v>539268.7991438396</v>
       </c>
       <c r="E29" t="n">
-        <v>570602.7449536222</v>
+        <v>565925.4854559147</v>
       </c>
     </row>
     <row r="30">
@@ -5770,13 +5770,13 @@
         <v>570804</v>
       </c>
       <c r="C30" t="n">
-        <v>593512.0988280047</v>
+        <v>548460.2745287723</v>
       </c>
       <c r="D30" t="n">
-        <v>592622.3034428433</v>
+        <v>550933.6108428438</v>
       </c>
       <c r="E30" t="n">
-        <v>582834.5542060683</v>
+        <v>578140.3102976297</v>
       </c>
     </row>
     <row r="31">
@@ -5787,13 +5787,13 @@
         <v>496139</v>
       </c>
       <c r="C31" t="n">
-        <v>558980.8861367186</v>
+        <v>512130.5506506964</v>
       </c>
       <c r="D31" t="n">
-        <v>557326.5300817407</v>
+        <v>514184.5803072744</v>
       </c>
       <c r="E31" t="n">
-        <v>539128.613476984</v>
+        <v>536778.9065296316</v>
       </c>
     </row>
     <row r="32">
@@ -5804,13 +5804,13 @@
         <v>470421</v>
       </c>
       <c r="C32" t="n">
-        <v>548343.555907389</v>
+        <v>500683.3215285757</v>
       </c>
       <c r="D32" t="n">
-        <v>546586.0911741845</v>
+        <v>502701.6722186254</v>
       </c>
       <c r="E32" t="n">
-        <v>527253.9791089349</v>
+        <v>524903.5298091725</v>
       </c>
     </row>
     <row r="33">
@@ -5821,13 +5821,13 @@
         <v>574863</v>
       </c>
       <c r="C33" t="n">
-        <v>601070.1895010618</v>
+        <v>555343.3400810299</v>
       </c>
       <c r="D33" t="n">
-        <v>601642.8806779154</v>
+        <v>559540.3555144452</v>
       </c>
       <c r="E33" t="n">
-        <v>607942.4836233048</v>
+        <v>605707.525282014</v>
       </c>
     </row>
     <row r="34">
@@ -5838,13 +5838,13 @@
         <v>550927</v>
       </c>
       <c r="C34" t="n">
-        <v>590065.2056227188</v>
+        <v>543602.4538776919</v>
       </c>
       <c r="D34" t="n">
-        <v>589870.5648168083</v>
+        <v>547121.5248041776</v>
       </c>
       <c r="E34" t="n">
-        <v>587729.5159517936</v>
+        <v>585831.3049955206</v>
       </c>
     </row>
     <row r="35">
@@ -5855,13 +5855,13 @@
         <v>580135</v>
       </c>
       <c r="C35" t="n">
-        <v>604687.3207147523</v>
+        <v>558686.1620884463</v>
       </c>
       <c r="D35" t="n">
-        <v>605471.3529199834</v>
+        <v>563164.7312074102</v>
       </c>
       <c r="E35" t="n">
-        <v>614095.7071775268</v>
+        <v>612428.9915160132</v>
       </c>
     </row>
     <row r="36">
@@ -5872,13 +5872,13 @@
         <v>619648</v>
       </c>
       <c r="C36" t="n">
-        <v>624210.4565285204</v>
+        <v>578861.5069478014</v>
       </c>
       <c r="D36" t="n">
-        <v>625446.2866232732</v>
+        <v>583742.7662012363</v>
       </c>
       <c r="E36" t="n">
-        <v>639040.4176655523</v>
+        <v>637436.6179890194</v>
       </c>
     </row>
     <row r="37">
@@ -5889,13 +5889,13 @@
         <v>627688</v>
       </c>
       <c r="C37" t="n">
-        <v>632558.1732366164</v>
+        <v>587357.9004811574</v>
       </c>
       <c r="D37" t="n">
-        <v>633931.5508128987</v>
+        <v>592359.1599556435</v>
       </c>
       <c r="E37" t="n">
-        <v>649038.7041520037</v>
+        <v>647373.0141749911</v>
       </c>
     </row>
     <row r="38">
@@ -5906,13 +5906,13 @@
         <v>555319</v>
       </c>
       <c r="C38" t="n">
-        <v>609402.791769576</v>
+        <v>561743.6140261084</v>
       </c>
       <c r="D38" t="n">
-        <v>609729.9438744097</v>
+        <v>565887.6579153977</v>
       </c>
       <c r="E38" t="n">
-        <v>613328.6170275788</v>
+        <v>611472.140697579</v>
       </c>
     </row>
     <row r="39">
@@ -5923,13 +5923,13 @@
         <v>503641</v>
       </c>
       <c r="C39" t="n">
-        <v>585919.9828040655</v>
+        <v>535744.1301626717</v>
       </c>
       <c r="D39" t="n">
-        <v>584083.8949731779</v>
+        <v>537642.2139412739</v>
       </c>
       <c r="E39" t="n">
-        <v>563886.9288334153</v>
+        <v>558521.1355058977</v>
       </c>
     </row>
     <row r="40">
@@ -5940,13 +5940,13 @@
         <v>574067</v>
       </c>
       <c r="C40" t="n">
-        <v>610465.6388389352</v>
+        <v>560706.5373139282</v>
       </c>
       <c r="D40" t="n">
-        <v>610509.4926968118</v>
+        <v>564464.3823793253</v>
       </c>
       <c r="E40" t="n">
-        <v>610991.8851334543</v>
+        <v>605800.6780986945</v>
       </c>
     </row>
     <row r="41">
@@ -5957,13 +5957,13 @@
         <v>596158</v>
       </c>
       <c r="C41" t="n">
-        <v>600007.2805546386</v>
+        <v>549051.5290820504</v>
       </c>
       <c r="D41" t="n">
-        <v>599714.128942017</v>
+        <v>552582.2429727953</v>
       </c>
       <c r="E41" t="n">
-        <v>596489.4612031804</v>
+        <v>591420.095770988</v>
       </c>
     </row>
     <row r="42">
@@ -5974,13 +5974,13 @@
         <v>583015</v>
       </c>
       <c r="C42" t="n">
-        <v>610743.6735729637</v>
+        <v>559676.2194044762</v>
       </c>
       <c r="D42" t="n">
-        <v>610514.8731802535</v>
+        <v>563305.3979287233</v>
       </c>
       <c r="E42" t="n">
-        <v>607998.068860443</v>
+        <v>603226.3616954407</v>
       </c>
     </row>
     <row r="43">
@@ -5991,13 +5991,13 @@
         <v>523125</v>
       </c>
       <c r="C43" t="n">
-        <v>579421.7662066965</v>
+        <v>526473.6227237331</v>
       </c>
       <c r="D43" t="n">
-        <v>578372.0174607931</v>
+        <v>529511.1523091129</v>
       </c>
       <c r="E43" t="n">
-        <v>566824.7812558559</v>
+        <v>562923.9777482918</v>
       </c>
     </row>
     <row r="44">
@@ -6008,13 +6008,13 @@
         <v>494938</v>
       </c>
       <c r="C44" t="n">
-        <v>569773.0615681962</v>
+        <v>516014.6945220057</v>
       </c>
       <c r="D44" t="n">
-        <v>568918.400309197</v>
+        <v>519361.2725871489</v>
       </c>
       <c r="E44" t="n">
-        <v>559517.1264602069</v>
+        <v>556173.6313037253</v>
       </c>
     </row>
     <row r="45">
@@ -6025,13 +6025,13 @@
         <v>587945</v>
       </c>
       <c r="C45" t="n">
-        <v>617599.3208982914</v>
+        <v>565982.922575864</v>
       </c>
       <c r="D45" t="n">
-        <v>618701.4320117254</v>
+        <v>571169.9029733243</v>
       </c>
       <c r="E45" t="n">
-        <v>630824.6542594987</v>
+        <v>628226.6873453885</v>
       </c>
     </row>
     <row r="46">
@@ -6042,13 +6042,13 @@
         <v>567956</v>
       </c>
       <c r="C46" t="n">
-        <v>607617.1320685401</v>
+        <v>555253.791096955</v>
       </c>
       <c r="D46" t="n">
-        <v>608062.9267376643</v>
+        <v>559890.2747487935</v>
       </c>
       <c r="E46" t="n">
-        <v>612966.6680980308</v>
+        <v>610891.5949190173</v>
       </c>
     </row>
     <row r="47">
@@ -6059,13 +6059,13 @@
         <v>603765</v>
       </c>
       <c r="C47" t="n">
-        <v>620880.2786167396</v>
+        <v>569044.1923695331</v>
       </c>
       <c r="D47" t="n">
-        <v>622494.4331245822</v>
+        <v>574825.7160765629</v>
       </c>
       <c r="E47" t="n">
-        <v>640250.1327108508</v>
+        <v>638422.4768538912</v>
       </c>
     </row>
     <row r="48">
@@ -6076,13 +6076,13 @@
         <v>616149</v>
       </c>
       <c r="C48" t="n">
-        <v>638588.9486517252</v>
+        <v>587488.3183349316</v>
       </c>
       <c r="D48" t="n">
-        <v>640794.0695342749</v>
+        <v>593776.3806478377</v>
       </c>
       <c r="E48" t="n">
-        <v>665050.3992423215</v>
+        <v>662945.0660898036</v>
       </c>
     </row>
     <row r="49">
@@ -6093,13 +6093,13 @@
         <v>602492</v>
       </c>
       <c r="C49" t="n">
-        <v>646160.8347533912</v>
+        <v>595256.4006803685</v>
       </c>
       <c r="D49" t="n">
-        <v>648801.2764293144</v>
+        <v>601909.5550827696</v>
       </c>
       <c r="E49" t="n">
-        <v>677846.1348644701</v>
+        <v>675094.2535091813</v>
       </c>
     </row>
     <row r="50">
@@ -6110,13 +6110,13 @@
         <v>568207</v>
       </c>
       <c r="C50" t="n">
-        <v>625157.4972851928</v>
+        <v>571843.8442411245</v>
       </c>
       <c r="D50" t="n">
-        <v>626476.6627037516</v>
+        <v>577308.0368931358</v>
       </c>
       <c r="E50" t="n">
-        <v>640987.4823078982</v>
+        <v>637414.1560652609</v>
       </c>
     </row>
     <row r="51">
@@ -6127,13 +6127,13 @@
         <v>515917</v>
       </c>
       <c r="C51" t="n">
-        <v>603857.1631876568</v>
+        <v>548078.92572361</v>
       </c>
       <c r="D51" t="n">
-        <v>602951.750447674</v>
+        <v>551394.8898938622</v>
       </c>
       <c r="E51" t="n">
-        <v>592992.2103078621</v>
+        <v>587870.4957666367</v>
       </c>
     </row>
     <row r="52">
@@ -6144,13 +6144,13 @@
         <v>600202</v>
       </c>
       <c r="C52" t="n">
-        <v>626121.5641353378</v>
+        <v>570897.6873760406</v>
       </c>
       <c r="D52" t="n">
-        <v>626820.2861434842</v>
+        <v>575741.9512943769</v>
       </c>
       <c r="E52" t="n">
-        <v>634506.2282330944</v>
+        <v>629028.8543960761</v>
       </c>
     </row>
     <row r="53">
@@ -6161,13 +6161,13 @@
         <v>549746</v>
       </c>
       <c r="C53" t="n">
-        <v>616635.1979218908</v>
+        <v>560244.5793049634</v>
       </c>
       <c r="D53" t="n">
-        <v>617115.5419369277</v>
+        <v>564968.654253129</v>
       </c>
       <c r="E53" t="n">
-        <v>622399.3261023348</v>
+        <v>616933.4786829513</v>
       </c>
     </row>
     <row r="54">
@@ -6178,13 +6178,13 @@
         <v>597750</v>
       </c>
       <c r="C54" t="n">
-        <v>626373.7585271683</v>
+        <v>569957.0471381341</v>
       </c>
       <c r="D54" t="n">
-        <v>626944.1016179945</v>
+        <v>574822.8591959461</v>
       </c>
       <c r="E54" t="n">
-        <v>633217.8756170825</v>
+        <v>628346.7918318786</v>
       </c>
     </row>
     <row r="55">
@@ -6195,13 +6195,13 @@
         <v>512288</v>
       </c>
       <c r="C55" t="n">
-        <v>597962.8860266323</v>
+        <v>539607.2144794844</v>
       </c>
       <c r="D55" t="n">
-        <v>597685.2727159334</v>
+        <v>543737.0352451849</v>
       </c>
       <c r="E55" t="n">
-        <v>594631.5262982461</v>
+        <v>589165.0636678917</v>
       </c>
     </row>
     <row r="56">
@@ -6212,13 +6212,13 @@
         <v>483544</v>
       </c>
       <c r="C56" t="n">
-        <v>589210.9248489746</v>
+        <v>530047.1164008162</v>
       </c>
       <c r="D56" t="n">
-        <v>589423.0142683348</v>
+        <v>534829.3033669922</v>
       </c>
       <c r="E56" t="n">
-        <v>591755.9978812974</v>
+        <v>587433.3599949267</v>
       </c>
     </row>
     <row r="57">
@@ -6229,13 +6229,13 @@
         <v>280301</v>
       </c>
       <c r="C57" t="n">
-        <v>632592.2470690984</v>
+        <v>575722.9648874509</v>
       </c>
       <c r="D57" t="n">
-        <v>635612.3829044608</v>
+        <v>583165.7953198599</v>
       </c>
       <c r="E57" t="n">
-        <v>668833.8770934469</v>
+        <v>665036.9300763583</v>
       </c>
     </row>
     <row r="58">
@@ -6246,13 +6246,13 @@
         <v>31139</v>
       </c>
       <c r="C58" t="n">
-        <v>623537.7954738622</v>
+        <v>565915.7564533191</v>
       </c>
       <c r="D58" t="n">
-        <v>625270.3225733821</v>
+        <v>572128.1975113916</v>
       </c>
       <c r="E58" t="n">
-        <v>644328.1206681004</v>
+        <v>640465.0491501886</v>
       </c>
     </row>
     <row r="59">
@@ -6263,13 +6263,13 @@
         <v>70568</v>
       </c>
       <c r="C59" t="n">
-        <v>635568.2750078972</v>
+        <v>578521.6277049391</v>
       </c>
       <c r="D59" t="n">
-        <v>638345.8439153665</v>
+        <v>585743.7693862182</v>
       </c>
       <c r="E59" t="n">
-        <v>668899.1018975287</v>
+        <v>665187.327880288</v>
       </c>
     </row>
     <row r="60">
@@ -6280,13 +6280,13 @@
         <v>193462</v>
       </c>
       <c r="C60" t="n">
-        <v>651631.1143693303</v>
+        <v>595381.4001359086</v>
       </c>
       <c r="D60" t="n">
-        <v>655177.351205852</v>
+        <v>603365.1677475574</v>
       </c>
       <c r="E60" t="n">
-        <v>694185.9564075902</v>
+        <v>691186.6114756942</v>
       </c>
     </row>
     <row r="61">
@@ -6297,13 +6297,13 @@
         <v>205512</v>
       </c>
       <c r="C61" t="n">
-        <v>658499.2749863525</v>
+        <v>602482.2536361824</v>
       </c>
       <c r="D61" t="n">
-        <v>661832.7286122345</v>
+        <v>610327.3783760616</v>
       </c>
       <c r="E61" t="n">
-        <v>698500.7184969356</v>
+        <v>696623.7505147315</v>
       </c>
     </row>
     <row r="62">
@@ -6314,13 +6314,13 @@
         <v>222359</v>
       </c>
       <c r="C62" t="n">
-        <v>639447.9721420893</v>
+        <v>581081.0960780494</v>
       </c>
       <c r="D62" t="n">
-        <v>641576.3346081815</v>
+        <v>588014.9430923751</v>
       </c>
       <c r="E62" t="n">
-        <v>664988.3217351971</v>
+        <v>664287.2602499578</v>
       </c>
     </row>
     <row r="63">
@@ -6331,13 +6331,13 @@
         <v>239316</v>
       </c>
       <c r="C63" t="n">
-        <v>620127.2753151886</v>
+        <v>559357.8297141372</v>
       </c>
       <c r="D63" t="n">
-        <v>619493.9119741111</v>
+        <v>563112.7038103674</v>
       </c>
       <c r="E63" t="n">
-        <v>612526.9152222599</v>
+        <v>604416.3188688996</v>
       </c>
     </row>
     <row r="64">
@@ -6348,13 +6348,13 @@
         <v>255146</v>
       </c>
       <c r="C64" t="n">
-        <v>640322.4393334123</v>
+        <v>580216.3443155325</v>
       </c>
       <c r="D64" t="n">
-        <v>642859.6644308761</v>
+        <v>587182.287049652</v>
       </c>
       <c r="E64" t="n">
-        <v>670769.1405029787</v>
+        <v>663807.6571249665</v>
       </c>
     </row>
     <row r="65">
@@ -6365,13 +6365,13 @@
         <v>262299</v>
       </c>
       <c r="C65" t="n">
-        <v>631717.7289678521</v>
+        <v>570478.4613358304</v>
       </c>
       <c r="D65" t="n">
-        <v>633386.6903460653</v>
+        <v>576698.5042818789</v>
       </c>
       <c r="E65" t="n">
-        <v>651745.2655064116</v>
+        <v>645118.9766884132</v>
       </c>
     </row>
     <row r="66">
@@ -6382,13 +6382,13 @@
         <v>324494</v>
       </c>
       <c r="C66" t="n">
-        <v>640551.1949653047</v>
+        <v>579356.5906658568</v>
       </c>
       <c r="D66" t="n">
-        <v>642566.4292395024</v>
+        <v>585890.0744887467</v>
       </c>
       <c r="E66" t="n">
-        <v>664734.0062556767</v>
+        <v>657758.3965405355</v>
       </c>
     </row>
     <row r="67">
@@ -6399,13 +6399,13 @@
         <v>270392</v>
       </c>
       <c r="C67" t="n">
-        <v>614780.807906724</v>
+        <v>551614.062768839</v>
       </c>
       <c r="D67" t="n">
-        <v>615095.2153770609</v>
+        <v>556929.7337001829</v>
       </c>
       <c r="E67" t="n">
-        <v>618553.6975507659</v>
+        <v>615402.113944966</v>
       </c>
     </row>
     <row r="68">
@@ -6416,13 +6416,13 @@
         <v>230710</v>
       </c>
       <c r="C68" t="n">
-        <v>606842.2475170121</v>
+        <v>542875.2706483762</v>
       </c>
       <c r="D68" t="n">
-        <v>606437.2289150567</v>
+        <v>547494.0362194054</v>
       </c>
       <c r="E68" t="n">
-        <v>601982.0242935473</v>
+        <v>598300.4575007262</v>
       </c>
     </row>
     <row r="69">
@@ -6433,13 +6433,13 @@
         <v>423863</v>
       </c>
       <c r="C69" t="n">
-        <v>646191.7417891258</v>
+        <v>584627.2410030783</v>
       </c>
       <c r="D69" t="n">
-        <v>650005.1337580925</v>
+        <v>593221.5988199373</v>
       </c>
       <c r="E69" t="n">
-        <v>691952.445416727</v>
+        <v>687759.5348053874</v>
       </c>
     </row>
     <row r="70">
@@ -6450,13 +6450,13 @@
         <v>441103</v>
       </c>
       <c r="C70" t="n">
-        <v>637978.8042171446</v>
+        <v>575662.5590897675</v>
       </c>
       <c r="D70" t="n">
-        <v>640607.5257184646</v>
+        <v>583146.5817075884</v>
       </c>
       <c r="E70" t="n">
-        <v>669523.4622329854</v>
+        <v>665470.8305036186</v>
       </c>
     </row>
     <row r="71">
@@ -6467,13 +6467,13 @@
         <v>489348</v>
       </c>
       <c r="C71" t="n">
-        <v>648891.1798960882</v>
+        <v>587185.5033629768</v>
       </c>
       <c r="D71" t="n">
-        <v>652732.3207490708</v>
+        <v>595847.6864098846</v>
       </c>
       <c r="E71" t="n">
-        <v>694984.87013188</v>
+        <v>691131.6999258702</v>
       </c>
     </row>
     <row r="72">
@@ -6484,13 +6484,13 @@
         <v>529171</v>
       </c>
       <c r="C72" t="n">
-        <v>663461.1508674524</v>
+        <v>602596.9047071666</v>
       </c>
       <c r="D72" t="n">
-        <v>668180.3469670891</v>
+        <v>612099.7857181211</v>
       </c>
       <c r="E72" t="n">
-        <v>720091.5040630946</v>
+        <v>716631.4768386204</v>
       </c>
     </row>
     <row r="73">
@@ -6501,13 +6501,13 @@
         <v>566253</v>
       </c>
       <c r="C73" t="n">
-        <v>669690.9897250172</v>
+        <v>609087.7491888248</v>
       </c>
       <c r="D73" t="n">
-        <v>674488.5593271512</v>
+        <v>618691.2612600394</v>
       </c>
       <c r="E73" t="n">
-        <v>727261.824950625</v>
+        <v>724329.8940433993</v>
       </c>
     </row>
     <row r="74">
@@ -6518,13 +6518,13 @@
         <v>479612</v>
       </c>
       <c r="C74" t="n">
-        <v>652410.3008529089</v>
+        <v>589525.1163961167</v>
       </c>
       <c r="D74" t="n">
-        <v>655765.0556225152</v>
+        <v>597915.5699313134</v>
       </c>
       <c r="E74" t="n">
-        <v>692667.3580881852</v>
+        <v>690210.5588184784</v>
       </c>
     </row>
     <row r="75">
@@ -6535,13 +6535,13 @@
         <v>438059</v>
       </c>
       <c r="C75" t="n">
-        <v>634885.2552753284</v>
+        <v>569668.0451821581</v>
       </c>
       <c r="D75" t="n">
-        <v>635456.2177323109</v>
+        <v>575013.7343220212</v>
       </c>
       <c r="E75" t="n">
-        <v>641736.8047591193</v>
+        <v>633816.314860516</v>
       </c>
     </row>
   </sheetData>
@@ -6598,13 +6598,13 @@
         <v>503108</v>
       </c>
       <c r="C2" t="n">
-        <v>552294.9610416541</v>
+        <v>544815.5387638258</v>
       </c>
       <c r="D2" t="n">
-        <v>550768.6172809269</v>
+        <v>543809.4761986798</v>
       </c>
       <c r="E2" t="n">
-        <v>533978.8359129273</v>
+        <v>532742.7879820741</v>
       </c>
     </row>
     <row r="3">
@@ -6615,13 +6615,13 @@
         <v>469594</v>
       </c>
       <c r="C3" t="n">
-        <v>520420.2485844077</v>
+        <v>506859.9720596262</v>
       </c>
       <c r="D3" t="n">
-        <v>517550.5248617821</v>
+        <v>504888.2350282785</v>
       </c>
       <c r="E3" t="n">
-        <v>485983.5639129011</v>
+        <v>483199.1276834542</v>
       </c>
     </row>
     <row r="4">
@@ -6632,13 +6632,13 @@
         <v>521638</v>
       </c>
       <c r="C4" t="n">
-        <v>553222.6907497841</v>
+        <v>536415.3800999533</v>
       </c>
       <c r="D4" t="n">
-        <v>551078.9316738117</v>
+        <v>535410.5556176971</v>
       </c>
       <c r="E4" t="n">
-        <v>527497.5818381162</v>
+        <v>524357.4863128787</v>
       </c>
     </row>
     <row r="5">
@@ -6649,13 +6649,13 @@
         <v>520563</v>
       </c>
       <c r="C5" t="n">
-        <v>539190.1302305243</v>
+        <v>518658.1088585328</v>
       </c>
       <c r="D5" t="n">
-        <v>537206.842686929</v>
+        <v>518125.1090036361</v>
       </c>
       <c r="E5" t="n">
-        <v>515390.6797073806</v>
+        <v>512262.110599772</v>
       </c>
     </row>
     <row r="6">
@@ -6666,13 +6666,13 @@
         <v>534069</v>
       </c>
       <c r="C6" t="n">
-        <v>553572.401281437</v>
+        <v>530573.7393645504</v>
       </c>
       <c r="D6" t="n">
-        <v>551292.1369431599</v>
+        <v>529998.879729895</v>
       </c>
       <c r="E6" t="n">
-        <v>526209.2292221112</v>
+        <v>523675.4237486855</v>
       </c>
     </row>
     <row r="7">
@@ -6683,13 +6683,13 @@
         <v>469273</v>
       </c>
       <c r="C7" t="n">
-        <v>511601.524105004</v>
+        <v>485509.12982874</v>
       </c>
       <c r="D7" t="n">
-        <v>509603.3037548597</v>
+        <v>485424.5103084031</v>
       </c>
       <c r="E7" t="n">
-        <v>487622.8799032726</v>
+        <v>484493.6955846964</v>
       </c>
     </row>
     <row r="8">
@@ -6700,13 +6700,13 @@
         <v>440613</v>
       </c>
       <c r="C8" t="n">
-        <v>498672.488309282</v>
+        <v>470542.8675087237</v>
       </c>
       <c r="D8" t="n">
-        <v>497512.0602407028</v>
+        <v>471561.1278756417</v>
       </c>
       <c r="E8" t="n">
-        <v>484747.3514863318</v>
+        <v>482761.9919117392</v>
       </c>
     </row>
     <row r="9">
@@ -6717,13 +6717,13 @@
         <v>514619</v>
       </c>
       <c r="C9" t="n">
-        <v>562757.5834623162</v>
+        <v>534948.2886302769</v>
       </c>
       <c r="D9" t="n">
-        <v>562679.8873986633</v>
+        <v>537066.3947438514</v>
       </c>
       <c r="E9" t="n">
-        <v>561825.2306984822</v>
+        <v>560365.5619931706</v>
       </c>
     </row>
     <row r="10">
@@ -6734,13 +6734,13 @@
         <v>493803</v>
       </c>
       <c r="C10" t="n">
-        <v>549381.8702845423</v>
+        <v>520089.0331895133</v>
       </c>
       <c r="D10" t="n">
-        <v>548376.6706169246</v>
+        <v>521397.7538459704</v>
       </c>
       <c r="E10" t="n">
-        <v>537319.4742731305</v>
+        <v>535793.6810669997</v>
       </c>
     </row>
     <row r="11">
@@ -6751,13 +6751,13 @@
         <v>511878</v>
       </c>
       <c r="C11" t="n">
-        <v>567153.9156225082</v>
+        <v>537495.9107892483</v>
       </c>
       <c r="D11" t="n">
-        <v>566715.293945847</v>
+        <v>539414.24820657</v>
       </c>
       <c r="E11" t="n">
-        <v>561890.4555025742</v>
+        <v>560515.9597971104</v>
       </c>
     </row>
     <row r="12">
@@ -6768,13 +6768,13 @@
         <v>551009</v>
       </c>
       <c r="C12" t="n">
-        <v>590882.7730873376</v>
+        <v>561126.3039060112</v>
       </c>
       <c r="D12" t="n">
-        <v>590573.9844977772</v>
+        <v>563242.0488632183</v>
       </c>
       <c r="E12" t="n">
-        <v>587177.3100126138</v>
+        <v>586515.2433924967</v>
       </c>
     </row>
     <row r="13">
@@ -6785,13 +6785,13 @@
         <v>540798</v>
       </c>
       <c r="C13" t="n">
-        <v>601028.7754226211</v>
+        <v>570883.1205996785</v>
       </c>
       <c r="D13" t="n">
-        <v>600234.0501458978</v>
+        <v>572638.8924189991</v>
       </c>
       <c r="E13" t="n">
-        <v>591492.0721019432</v>
+        <v>591952.3824315259</v>
       </c>
     </row>
     <row r="14">
@@ -6802,13 +6802,13 @@
         <v>491085</v>
       </c>
       <c r="C14" t="n">
-        <v>572885.2045806793</v>
+        <v>539899.3072547521</v>
       </c>
       <c r="D14" t="n">
-        <v>571643.0771439765</v>
+        <v>541542.355997421</v>
       </c>
       <c r="E14" t="n">
-        <v>557979.6753402452</v>
+        <v>559615.8921667777</v>
       </c>
     </row>
     <row r="15">
@@ -6819,13 +6819,13 @@
         <v>481068</v>
       </c>
       <c r="C15" t="n">
-        <v>544343.6710156034</v>
+        <v>508520.6669965721</v>
       </c>
       <c r="D15" t="n">
-        <v>541108.2208332426</v>
+        <v>507789.3573123318</v>
       </c>
       <c r="E15" t="n">
-        <v>505518.2688272743</v>
+        <v>499744.9507856898</v>
       </c>
     </row>
     <row r="16">
@@ -6836,13 +6836,13 @@
         <v>505115</v>
       </c>
       <c r="C16" t="n">
-        <v>574177.01278107</v>
+        <v>538185.8045352474</v>
       </c>
       <c r="D16" t="n">
-        <v>573308.9695583147</v>
+        <v>539931.6782441246</v>
       </c>
       <c r="E16" t="n">
-        <v>563760.4941080062</v>
+        <v>559136.289041775</v>
       </c>
     </row>
     <row r="17">
@@ -6853,13 +6853,13 @@
         <v>531836</v>
       </c>
       <c r="C17" t="n">
-        <v>561465.6891737087</v>
+        <v>524069.6291615664</v>
       </c>
       <c r="D17" t="n">
-        <v>560071.6000018523</v>
+        <v>525434.4607818698</v>
       </c>
       <c r="E17" t="n">
-        <v>544736.6191114318</v>
+        <v>540447.6086052086</v>
       </c>
     </row>
     <row r="18">
@@ -6870,13 +6870,13 @@
         <v>536638</v>
       </c>
       <c r="C18" t="n">
-        <v>574514.9424426797</v>
+        <v>536651.3987213523</v>
       </c>
       <c r="D18" t="n">
-        <v>573115.8105608474</v>
+        <v>538021.0345326837</v>
       </c>
       <c r="E18" t="n">
-        <v>557725.3598606922</v>
+        <v>553087.028457328</v>
       </c>
     </row>
     <row r="19">
@@ -6887,13 +6887,13 @@
         <v>469950</v>
       </c>
       <c r="C19" t="n">
-        <v>536445.5925787793</v>
+        <v>496807.8345798907</v>
       </c>
       <c r="D19" t="n">
-        <v>534370.5474601961</v>
+        <v>497968.0771867136</v>
       </c>
       <c r="E19" t="n">
-        <v>511545.0511557811</v>
+        <v>510730.7458617655</v>
       </c>
     </row>
     <row r="20">
@@ -6904,13 +6904,13 @@
         <v>447859</v>
       </c>
       <c r="C20" t="n">
-        <v>524718.3402016755</v>
+        <v>484205.2841387936</v>
       </c>
       <c r="D20" t="n">
-        <v>522239.5933430822</v>
+        <v>484990.6012453538</v>
       </c>
       <c r="E20" t="n">
-        <v>494973.3778985568</v>
+        <v>493629.0894175167</v>
       </c>
     </row>
     <row r="21">
@@ -6921,13 +6921,13 @@
         <v>538969</v>
       </c>
       <c r="C21" t="n">
-        <v>582847.4502149271</v>
+        <v>543938.8169713389</v>
       </c>
       <c r="D21" t="n">
-        <v>583022.1459488276</v>
+        <v>547201.2627839085</v>
       </c>
       <c r="E21" t="n">
-        <v>584943.7990217337</v>
+        <v>583088.166722175</v>
       </c>
     </row>
     <row r="22">
@@ -6938,13 +6938,13 @@
         <v>524914</v>
       </c>
       <c r="C22" t="n">
-        <v>570714.8736600105</v>
+        <v>531043.7932406405</v>
       </c>
       <c r="D22" t="n">
-        <v>570031.5355081749</v>
+        <v>533523.4323389539</v>
       </c>
       <c r="E22" t="n">
-        <v>562514.8158379834</v>
+        <v>560799.4624204012</v>
       </c>
     </row>
     <row r="23">
@@ -6955,13 +6955,13 @@
         <v>558985</v>
       </c>
       <c r="C23" t="n">
-        <v>586835.1999330925</v>
+        <v>547504.5778856401</v>
       </c>
       <c r="D23" t="n">
-        <v>586930.285250078</v>
+        <v>550750.8907153936</v>
       </c>
       <c r="E23" t="n">
-        <v>587976.2237369188</v>
+        <v>586460.3318426829</v>
       </c>
     </row>
     <row r="24">
@@ -6972,13 +6972,13 @@
         <v>592534</v>
       </c>
       <c r="C24" t="n">
-        <v>608358.7153213073</v>
+        <v>569543.6703899917</v>
       </c>
       <c r="D24" t="n">
-        <v>608752.3938502086</v>
+        <v>573078.3735871111</v>
       </c>
       <c r="E24" t="n">
-        <v>613082.8576681231</v>
+        <v>611960.1087554251</v>
       </c>
     </row>
     <row r="25">
@@ -6989,13 +6989,13 @@
         <v>594093</v>
       </c>
       <c r="C25" t="n">
-        <v>617561.7557927285</v>
+        <v>578812.7227489194</v>
       </c>
       <c r="D25" t="n">
-        <v>617786.0410229689</v>
+        <v>582216.5396831899</v>
       </c>
       <c r="E25" t="n">
-        <v>620253.1785556135</v>
+        <v>619658.5259601673</v>
       </c>
     </row>
     <row r="26">
@@ -7006,13 +7006,13 @@
         <v>451723</v>
       </c>
       <c r="C26" t="n">
-        <v>592033.8275910326</v>
+        <v>550770.5361684855</v>
       </c>
       <c r="D26" t="n">
-        <v>591502.5679328805</v>
+        <v>553667.9240490518</v>
       </c>
       <c r="E26" t="n">
-        <v>585658.7116932061</v>
+        <v>585539.1907352818</v>
       </c>
     </row>
     <row r="27">
@@ -7023,13 +7023,13 @@
         <v>401051</v>
       </c>
       <c r="C27" t="n">
-        <v>566144.9230139699</v>
+        <v>522311.1054146218</v>
       </c>
       <c r="D27" t="n">
-        <v>563526.8592931494</v>
+        <v>522880.5921948446</v>
       </c>
       <c r="E27" t="n">
-        <v>534728.1583641251</v>
+        <v>529144.9467772966</v>
       </c>
     </row>
     <row r="28">
@@ -7040,13 +7040,13 @@
         <v>554974</v>
       </c>
       <c r="C28" t="n">
-        <v>593205.5760985925</v>
+        <v>549606.3403560681</v>
       </c>
       <c r="D28" t="n">
-        <v>592722.7023544009</v>
+        <v>552347.8156992956</v>
       </c>
       <c r="E28" t="n">
-        <v>587411.091168294</v>
+        <v>582504.0444747987</v>
       </c>
     </row>
     <row r="29">
@@ -7057,13 +7057,13 @@
         <v>579797</v>
       </c>
       <c r="C29" t="n">
-        <v>581675.6334902551</v>
+        <v>536845.4640245601</v>
       </c>
       <c r="D29" t="n">
-        <v>580752.8927788689</v>
+        <v>539268.7991438396</v>
       </c>
       <c r="E29" t="n">
-        <v>570602.7449536222</v>
+        <v>565925.4854559147</v>
       </c>
     </row>
     <row r="30">
@@ -7074,13 +7074,13 @@
         <v>570804</v>
       </c>
       <c r="C30" t="n">
-        <v>593512.0988280047</v>
+        <v>548460.2745287723</v>
       </c>
       <c r="D30" t="n">
-        <v>592622.3034428433</v>
+        <v>550933.6108428438</v>
       </c>
       <c r="E30" t="n">
-        <v>582834.5542060683</v>
+        <v>578140.3102976297</v>
       </c>
     </row>
     <row r="31">
@@ -7091,13 +7091,13 @@
         <v>496139</v>
       </c>
       <c r="C31" t="n">
-        <v>558980.8861367186</v>
+        <v>512130.5506506964</v>
       </c>
       <c r="D31" t="n">
-        <v>557326.5300817407</v>
+        <v>514184.5803072744</v>
       </c>
       <c r="E31" t="n">
-        <v>539128.613476984</v>
+        <v>536778.9065296316</v>
       </c>
     </row>
     <row r="32">
@@ -7108,13 +7108,13 @@
         <v>470421</v>
       </c>
       <c r="C32" t="n">
-        <v>548343.555907389</v>
+        <v>500683.3215285757</v>
       </c>
       <c r="D32" t="n">
-        <v>546586.0911741845</v>
+        <v>502701.6722186254</v>
       </c>
       <c r="E32" t="n">
-        <v>527253.9791089349</v>
+        <v>524903.5298091725</v>
       </c>
     </row>
     <row r="33">
@@ -7125,13 +7125,13 @@
         <v>574863</v>
       </c>
       <c r="C33" t="n">
-        <v>601070.1895010618</v>
+        <v>555343.3400810299</v>
       </c>
       <c r="D33" t="n">
-        <v>601642.8806779154</v>
+        <v>559540.3555144452</v>
       </c>
       <c r="E33" t="n">
-        <v>607942.4836233048</v>
+        <v>605707.525282014</v>
       </c>
     </row>
     <row r="34">
@@ -7142,13 +7142,13 @@
         <v>550927</v>
       </c>
       <c r="C34" t="n">
-        <v>590065.2056227188</v>
+        <v>543602.4538776919</v>
       </c>
       <c r="D34" t="n">
-        <v>589870.5648168083</v>
+        <v>547121.5248041776</v>
       </c>
       <c r="E34" t="n">
-        <v>587729.5159517936</v>
+        <v>585831.3049955206</v>
       </c>
     </row>
     <row r="35">
@@ -7159,13 +7159,13 @@
         <v>580135</v>
       </c>
       <c r="C35" t="n">
-        <v>604687.3207147523</v>
+        <v>558686.1620884463</v>
       </c>
       <c r="D35" t="n">
-        <v>605471.3529199834</v>
+        <v>563164.7312074102</v>
       </c>
       <c r="E35" t="n">
-        <v>614095.7071775268</v>
+        <v>612428.9915160132</v>
       </c>
     </row>
     <row r="36">
@@ -7176,13 +7176,13 @@
         <v>619648</v>
       </c>
       <c r="C36" t="n">
-        <v>624210.4565285204</v>
+        <v>578861.5069478014</v>
       </c>
       <c r="D36" t="n">
-        <v>625446.2866232732</v>
+        <v>583742.7662012363</v>
       </c>
       <c r="E36" t="n">
-        <v>639040.4176655523</v>
+        <v>637436.6179890194</v>
       </c>
     </row>
     <row r="37">
@@ -7193,13 +7193,13 @@
         <v>627688</v>
       </c>
       <c r="C37" t="n">
-        <v>632558.1732366164</v>
+        <v>587357.9004811574</v>
       </c>
       <c r="D37" t="n">
-        <v>633931.5508128987</v>
+        <v>592359.1599556435</v>
       </c>
       <c r="E37" t="n">
-        <v>649038.7041520037</v>
+        <v>647373.0141749911</v>
       </c>
     </row>
     <row r="38">
@@ -7210,13 +7210,13 @@
         <v>555319</v>
       </c>
       <c r="C38" t="n">
-        <v>609402.791769576</v>
+        <v>561743.6140261084</v>
       </c>
       <c r="D38" t="n">
-        <v>609729.9438744097</v>
+        <v>565887.6579153977</v>
       </c>
       <c r="E38" t="n">
-        <v>613328.6170275788</v>
+        <v>611472.140697579</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         <v>503641</v>
       </c>
       <c r="C39" t="n">
-        <v>585919.9828040655</v>
+        <v>535744.1301626717</v>
       </c>
       <c r="D39" t="n">
-        <v>584083.8949731779</v>
+        <v>537642.2139412739</v>
       </c>
       <c r="E39" t="n">
-        <v>563886.9288334153</v>
+        <v>558521.1355058977</v>
       </c>
     </row>
     <row r="40">
@@ -7244,13 +7244,13 @@
         <v>574067</v>
       </c>
       <c r="C40" t="n">
-        <v>610465.6388389352</v>
+        <v>560706.5373139282</v>
       </c>
       <c r="D40" t="n">
-        <v>610509.4926968118</v>
+        <v>564464.3823793253</v>
       </c>
       <c r="E40" t="n">
-        <v>610991.8851334543</v>
+        <v>605800.6780986945</v>
       </c>
     </row>
     <row r="41">
@@ -7261,13 +7261,13 @@
         <v>596158</v>
       </c>
       <c r="C41" t="n">
-        <v>600007.2805546386</v>
+        <v>549051.5290820504</v>
       </c>
       <c r="D41" t="n">
-        <v>599714.128942017</v>
+        <v>552582.2429727953</v>
       </c>
       <c r="E41" t="n">
-        <v>596489.4612031804</v>
+        <v>591420.095770988</v>
       </c>
     </row>
     <row r="42">
@@ -7278,13 +7278,13 @@
         <v>583015</v>
       </c>
       <c r="C42" t="n">
-        <v>610743.6735729637</v>
+        <v>559676.2194044762</v>
       </c>
       <c r="D42" t="n">
-        <v>610514.8731802535</v>
+        <v>563305.3979287233</v>
       </c>
       <c r="E42" t="n">
-        <v>607998.068860443</v>
+        <v>603226.3616954407</v>
       </c>
     </row>
     <row r="43">
@@ -7295,13 +7295,13 @@
         <v>523125</v>
       </c>
       <c r="C43" t="n">
-        <v>579421.7662066965</v>
+        <v>526473.6227237331</v>
       </c>
       <c r="D43" t="n">
-        <v>578372.0174607931</v>
+        <v>529511.1523091129</v>
       </c>
       <c r="E43" t="n">
-        <v>566824.7812558559</v>
+        <v>562923.9777482918</v>
       </c>
     </row>
     <row r="44">
@@ -7312,13 +7312,13 @@
         <v>494938</v>
       </c>
       <c r="C44" t="n">
-        <v>569773.0615681962</v>
+        <v>516014.6945220057</v>
       </c>
       <c r="D44" t="n">
-        <v>568918.400309197</v>
+        <v>519361.2725871489</v>
       </c>
       <c r="E44" t="n">
-        <v>559517.1264602069</v>
+        <v>556173.6313037253</v>
       </c>
     </row>
     <row r="45">
@@ -7329,13 +7329,13 @@
         <v>587945</v>
       </c>
       <c r="C45" t="n">
-        <v>617599.3208982914</v>
+        <v>565982.922575864</v>
       </c>
       <c r="D45" t="n">
-        <v>618701.4320117254</v>
+        <v>571169.9029733243</v>
       </c>
       <c r="E45" t="n">
-        <v>630824.6542594987</v>
+        <v>628226.6873453885</v>
       </c>
     </row>
     <row r="46">
@@ -7346,13 +7346,13 @@
         <v>567956</v>
       </c>
       <c r="C46" t="n">
-        <v>607617.1320685401</v>
+        <v>555253.791096955</v>
       </c>
       <c r="D46" t="n">
-        <v>608062.9267376643</v>
+        <v>559890.2747487935</v>
       </c>
       <c r="E46" t="n">
-        <v>612966.6680980308</v>
+        <v>610891.5949190173</v>
       </c>
     </row>
     <row r="47">
@@ -7363,13 +7363,13 @@
         <v>603765</v>
       </c>
       <c r="C47" t="n">
-        <v>620880.2786167396</v>
+        <v>569044.1923695331</v>
       </c>
       <c r="D47" t="n">
-        <v>622494.4331245822</v>
+        <v>574825.7160765629</v>
       </c>
       <c r="E47" t="n">
-        <v>640250.1327108508</v>
+        <v>638422.4768538912</v>
       </c>
     </row>
     <row r="48">
@@ -7380,13 +7380,13 @@
         <v>616149</v>
       </c>
       <c r="C48" t="n">
-        <v>638588.9486517252</v>
+        <v>587488.3183349316</v>
       </c>
       <c r="D48" t="n">
-        <v>640794.0695342749</v>
+        <v>593776.3806478377</v>
       </c>
       <c r="E48" t="n">
-        <v>665050.3992423215</v>
+        <v>662945.0660898036</v>
       </c>
     </row>
     <row r="49">
@@ -7397,13 +7397,13 @@
         <v>602492</v>
       </c>
       <c r="C49" t="n">
-        <v>646160.8347533912</v>
+        <v>595256.4006803685</v>
       </c>
       <c r="D49" t="n">
-        <v>648801.2764293144</v>
+        <v>601909.5550827696</v>
       </c>
       <c r="E49" t="n">
-        <v>677846.1348644701</v>
+        <v>675094.2535091813</v>
       </c>
     </row>
     <row r="50">
@@ -7414,13 +7414,13 @@
         <v>568207</v>
       </c>
       <c r="C50" t="n">
-        <v>625157.4972851928</v>
+        <v>571843.8442411245</v>
       </c>
       <c r="D50" t="n">
-        <v>626476.6627037516</v>
+        <v>577308.0368931358</v>
       </c>
       <c r="E50" t="n">
-        <v>640987.4823078982</v>
+        <v>637414.1560652609</v>
       </c>
     </row>
     <row r="51">
@@ -7431,13 +7431,13 @@
         <v>515917</v>
       </c>
       <c r="C51" t="n">
-        <v>603857.1631876568</v>
+        <v>548078.92572361</v>
       </c>
       <c r="D51" t="n">
-        <v>602951.750447674</v>
+        <v>551394.8898938622</v>
       </c>
       <c r="E51" t="n">
-        <v>592992.2103078621</v>
+        <v>587870.4957666367</v>
       </c>
     </row>
     <row r="52">
@@ -7448,13 +7448,13 @@
         <v>600202</v>
       </c>
       <c r="C52" t="n">
-        <v>626121.5641353378</v>
+        <v>570897.6873760406</v>
       </c>
       <c r="D52" t="n">
-        <v>626820.2861434842</v>
+        <v>575741.9512943769</v>
       </c>
       <c r="E52" t="n">
-        <v>634506.2282330944</v>
+        <v>629028.8543960761</v>
       </c>
     </row>
     <row r="53">
@@ -7465,13 +7465,13 @@
         <v>549746</v>
       </c>
       <c r="C53" t="n">
-        <v>616635.1979218908</v>
+        <v>560244.5793049634</v>
       </c>
       <c r="D53" t="n">
-        <v>617115.5419369277</v>
+        <v>564968.654253129</v>
       </c>
       <c r="E53" t="n">
-        <v>622399.3261023348</v>
+        <v>616933.4786829513</v>
       </c>
     </row>
     <row r="54">
@@ -7482,13 +7482,13 @@
         <v>597750</v>
       </c>
       <c r="C54" t="n">
-        <v>626373.7585271683</v>
+        <v>569957.0471381341</v>
       </c>
       <c r="D54" t="n">
-        <v>626944.1016179945</v>
+        <v>574822.8591959461</v>
       </c>
       <c r="E54" t="n">
-        <v>633217.8756170825</v>
+        <v>628346.7918318786</v>
       </c>
     </row>
     <row r="55">
@@ -7499,13 +7499,13 @@
         <v>512288</v>
       </c>
       <c r="C55" t="n">
-        <v>597962.8860266323</v>
+        <v>539607.2144794844</v>
       </c>
       <c r="D55" t="n">
-        <v>597685.2727159334</v>
+        <v>543737.0352451849</v>
       </c>
       <c r="E55" t="n">
-        <v>594631.5262982461</v>
+        <v>589165.0636678917</v>
       </c>
     </row>
     <row r="56">
@@ -7516,13 +7516,13 @@
         <v>483544</v>
       </c>
       <c r="C56" t="n">
-        <v>589210.9248489746</v>
+        <v>530047.1164008162</v>
       </c>
       <c r="D56" t="n">
-        <v>589423.0142683348</v>
+        <v>534829.3033669922</v>
       </c>
       <c r="E56" t="n">
-        <v>591755.9978812974</v>
+        <v>587433.3599949267</v>
       </c>
     </row>
     <row r="57">
@@ -7533,13 +7533,13 @@
         <v>280301</v>
       </c>
       <c r="C57" t="n">
-        <v>632592.2470690984</v>
+        <v>575722.9648874509</v>
       </c>
       <c r="D57" t="n">
-        <v>635612.3829044608</v>
+        <v>583165.7953198599</v>
       </c>
       <c r="E57" t="n">
-        <v>668833.8770934469</v>
+        <v>665036.9300763583</v>
       </c>
     </row>
     <row r="58">
@@ -7550,13 +7550,13 @@
         <v>31139</v>
       </c>
       <c r="C58" t="n">
-        <v>623537.7954738622</v>
+        <v>565915.7564533191</v>
       </c>
       <c r="D58" t="n">
-        <v>625270.3225733821</v>
+        <v>572128.1975113916</v>
       </c>
       <c r="E58" t="n">
-        <v>644328.1206681004</v>
+        <v>640465.0491501886</v>
       </c>
     </row>
     <row r="59">
@@ -7567,13 +7567,13 @@
         <v>70568</v>
       </c>
       <c r="C59" t="n">
-        <v>635568.2750078972</v>
+        <v>578521.6277049391</v>
       </c>
       <c r="D59" t="n">
-        <v>638345.8439153665</v>
+        <v>585743.7693862182</v>
       </c>
       <c r="E59" t="n">
-        <v>668899.1018975287</v>
+        <v>665187.327880288</v>
       </c>
     </row>
     <row r="60">
@@ -7584,13 +7584,13 @@
         <v>193462</v>
       </c>
       <c r="C60" t="n">
-        <v>651631.1143693303</v>
+        <v>595381.4001359086</v>
       </c>
       <c r="D60" t="n">
-        <v>655177.351205852</v>
+        <v>603365.1677475574</v>
       </c>
       <c r="E60" t="n">
-        <v>694185.9564075902</v>
+        <v>691186.6114756942</v>
       </c>
     </row>
     <row r="61">
@@ -7601,13 +7601,13 @@
         <v>205512</v>
       </c>
       <c r="C61" t="n">
-        <v>658499.2749863525</v>
+        <v>602482.2536361824</v>
       </c>
       <c r="D61" t="n">
-        <v>661832.7286122345</v>
+        <v>610327.3783760616</v>
       </c>
       <c r="E61" t="n">
-        <v>698500.7184969356</v>
+        <v>696623.7505147315</v>
       </c>
     </row>
     <row r="62">
@@ -7618,13 +7618,13 @@
         <v>222359</v>
       </c>
       <c r="C62" t="n">
-        <v>639447.9721420893</v>
+        <v>581081.0960780494</v>
       </c>
       <c r="D62" t="n">
-        <v>641576.3346081815</v>
+        <v>588014.9430923751</v>
       </c>
       <c r="E62" t="n">
-        <v>664988.3217351971</v>
+        <v>664287.2602499578</v>
       </c>
     </row>
     <row r="63">
@@ -7635,13 +7635,13 @@
         <v>239316</v>
       </c>
       <c r="C63" t="n">
-        <v>620127.2753151886</v>
+        <v>559357.8297141372</v>
       </c>
       <c r="D63" t="n">
-        <v>619493.9119741111</v>
+        <v>563112.7038103674</v>
       </c>
       <c r="E63" t="n">
-        <v>612526.9152222599</v>
+        <v>604416.3188688996</v>
       </c>
     </row>
     <row r="64">
@@ -7652,13 +7652,13 @@
         <v>255146</v>
       </c>
       <c r="C64" t="n">
-        <v>640322.4393334123</v>
+        <v>580216.3443155325</v>
       </c>
       <c r="D64" t="n">
-        <v>642859.6644308761</v>
+        <v>587182.287049652</v>
       </c>
       <c r="E64" t="n">
-        <v>670769.1405029787</v>
+        <v>663807.6571249665</v>
       </c>
     </row>
     <row r="65">
@@ -7669,13 +7669,13 @@
         <v>262299</v>
       </c>
       <c r="C65" t="n">
-        <v>631717.7289678521</v>
+        <v>570478.4613358304</v>
       </c>
       <c r="D65" t="n">
-        <v>633386.6903460653</v>
+        <v>576698.5042818789</v>
       </c>
       <c r="E65" t="n">
-        <v>651745.2655064116</v>
+        <v>645118.9766884132</v>
       </c>
     </row>
     <row r="66">
@@ -7686,13 +7686,13 @@
         <v>324494</v>
       </c>
       <c r="C66" t="n">
-        <v>640551.1949653047</v>
+        <v>579356.5906658568</v>
       </c>
       <c r="D66" t="n">
-        <v>642566.4292395024</v>
+        <v>585890.0744887467</v>
       </c>
       <c r="E66" t="n">
-        <v>664734.0062556767</v>
+        <v>657758.3965405355</v>
       </c>
     </row>
     <row r="67">
@@ -7703,13 +7703,13 @@
         <v>270392</v>
       </c>
       <c r="C67" t="n">
-        <v>614780.807906724</v>
+        <v>551614.062768839</v>
       </c>
       <c r="D67" t="n">
-        <v>615095.2153770609</v>
+        <v>556929.7337001829</v>
       </c>
       <c r="E67" t="n">
-        <v>618553.6975507659</v>
+        <v>615402.113944966</v>
       </c>
     </row>
     <row r="68">
@@ -7720,13 +7720,13 @@
         <v>230710</v>
       </c>
       <c r="C68" t="n">
-        <v>606842.2475170121</v>
+        <v>542875.2706483762</v>
       </c>
       <c r="D68" t="n">
-        <v>606437.2289150567</v>
+        <v>547494.0362194054</v>
       </c>
       <c r="E68" t="n">
-        <v>601982.0242935473</v>
+        <v>598300.4575007262</v>
       </c>
     </row>
     <row r="69">
@@ -7737,13 +7737,13 @@
         <v>423863</v>
       </c>
       <c r="C69" t="n">
-        <v>646191.7417891258</v>
+        <v>584627.2410030783</v>
       </c>
       <c r="D69" t="n">
-        <v>650005.1337580925</v>
+        <v>593221.5988199373</v>
       </c>
       <c r="E69" t="n">
-        <v>691952.445416727</v>
+        <v>687759.5348053874</v>
       </c>
     </row>
     <row r="70">
@@ -7754,13 +7754,13 @@
         <v>441103</v>
       </c>
       <c r="C70" t="n">
-        <v>637978.8042171446</v>
+        <v>575662.5590897675</v>
       </c>
       <c r="D70" t="n">
-        <v>640607.5257184646</v>
+        <v>583146.5817075884</v>
       </c>
       <c r="E70" t="n">
-        <v>669523.4622329854</v>
+        <v>665470.8305036186</v>
       </c>
     </row>
     <row r="71">
@@ -7771,13 +7771,13 @@
         <v>489348</v>
       </c>
       <c r="C71" t="n">
-        <v>648891.1798960882</v>
+        <v>587185.5033629768</v>
       </c>
       <c r="D71" t="n">
-        <v>652732.3207490708</v>
+        <v>595847.6864098846</v>
       </c>
       <c r="E71" t="n">
-        <v>694984.87013188</v>
+        <v>691131.6999258702</v>
       </c>
     </row>
     <row r="72">
@@ -7788,13 +7788,13 @@
         <v>529171</v>
       </c>
       <c r="C72" t="n">
-        <v>663461.1508674524</v>
+        <v>602596.9047071666</v>
       </c>
       <c r="D72" t="n">
-        <v>668180.3469670891</v>
+        <v>612099.7857181211</v>
       </c>
       <c r="E72" t="n">
-        <v>720091.5040630946</v>
+        <v>716631.4768386204</v>
       </c>
     </row>
     <row r="73">
@@ -7805,13 +7805,13 @@
         <v>566253</v>
       </c>
       <c r="C73" t="n">
-        <v>669690.9897250172</v>
+        <v>609087.7491888248</v>
       </c>
       <c r="D73" t="n">
-        <v>674488.5593271512</v>
+        <v>618691.2612600394</v>
       </c>
       <c r="E73" t="n">
-        <v>727261.824950625</v>
+        <v>724329.8940433993</v>
       </c>
     </row>
     <row r="74">
@@ -7822,13 +7822,13 @@
         <v>479612</v>
       </c>
       <c r="C74" t="n">
-        <v>652410.3008529089</v>
+        <v>589525.1163961167</v>
       </c>
       <c r="D74" t="n">
-        <v>655765.0556225152</v>
+        <v>597915.5699313134</v>
       </c>
       <c r="E74" t="n">
-        <v>692667.3580881852</v>
+        <v>690210.5588184784</v>
       </c>
     </row>
     <row r="75">
@@ -7839,13 +7839,13 @@
         <v>438059</v>
       </c>
       <c r="C75" t="n">
-        <v>634885.2552753284</v>
+        <v>569668.0451821581</v>
       </c>
       <c r="D75" t="n">
-        <v>635456.2177323109</v>
+        <v>575013.7343220212</v>
       </c>
       <c r="E75" t="n">
-        <v>641736.8047591193</v>
+        <v>633816.314860516</v>
       </c>
     </row>
   </sheetData>
@@ -7894,10 +7894,10 @@
         <v>44470</v>
       </c>
       <c r="B2" t="n">
-        <v>475941.3728589365</v>
+        <v>482593.8807031472</v>
       </c>
       <c r="C2" t="n">
-        <v>473696.2553869162</v>
+        <v>479794.3875774426</v>
       </c>
       <c r="D2" t="n">
         <v>448999.9631946926</v>
@@ -7908,10 +7908,10 @@
         <v>44501</v>
       </c>
       <c r="B3" t="n">
-        <v>476071.2073963715</v>
+        <v>479012.2045081173</v>
       </c>
       <c r="C3" t="n">
-        <v>472860.5123732854</v>
+        <v>475556.4263923856</v>
       </c>
       <c r="D3" t="n">
         <v>437542.8671193378</v>
@@ -7922,10 +7922,10 @@
         <v>44531</v>
       </c>
       <c r="B4" t="n">
-        <v>484888.2375056588</v>
+        <v>496300.786341944</v>
       </c>
       <c r="C4" t="n">
-        <v>481916.3524665196</v>
+        <v>492377.8555664477</v>
       </c>
       <c r="D4" t="n">
         <v>449225.6170359887</v>
@@ -7936,10 +7936,10 @@
         <v>44562</v>
       </c>
       <c r="B5" t="n">
-        <v>437452.327220741</v>
+        <v>448322.5965143376</v>
       </c>
       <c r="C5" t="n">
-        <v>434391.6035530604</v>
+        <v>444356.0170721907</v>
       </c>
       <c r="D5" t="n">
         <v>400723.6432085748</v>
@@ -7950,10 +7950,10 @@
         <v>44593</v>
       </c>
       <c r="B6" t="n">
-        <v>416199.592576333</v>
+        <v>427811.0924259588</v>
       </c>
       <c r="C6" t="n">
-        <v>413430.3501150613</v>
+        <v>424074.2249772183</v>
       </c>
       <c r="D6" t="n">
         <v>382968.6830410729</v>
@@ -7964,10 +7964,10 @@
         <v>44621</v>
       </c>
       <c r="B7" t="n">
-        <v>451851.2946434442</v>
+        <v>475915.6031606388</v>
       </c>
       <c r="C7" t="n">
-        <v>451998.3816204811</v>
+        <v>474057.3310945761</v>
       </c>
       <c r="D7" t="n">
         <v>453616.3383678866</v>
@@ -7978,10 +7978,10 @@
         <v>44652</v>
       </c>
       <c r="B8" t="n">
-        <v>447712.867790445</v>
+        <v>441350.5662599335</v>
       </c>
       <c r="C8" t="n">
-        <v>445681.5442404661</v>
+        <v>439849.434504164</v>
       </c>
       <c r="D8" t="n">
         <v>423336.9851906988</v>
@@ -7992,10 +7992,10 @@
         <v>44682</v>
       </c>
       <c r="B9" t="n">
-        <v>474546.920369216</v>
+        <v>467645.0751843594</v>
       </c>
       <c r="C9" t="n">
-        <v>472457.1499312294</v>
+        <v>466130.4585117775</v>
       </c>
       <c r="D9" t="n">
         <v>449469.6751133766</v>
@@ -8006,10 +8006,10 @@
         <v>44713</v>
       </c>
       <c r="B10" t="n">
-        <v>493903.3963272285</v>
+        <v>503308.5326785234</v>
       </c>
       <c r="C10" t="n">
-        <v>492544.2185929441</v>
+        <v>501165.593581631</v>
       </c>
       <c r="D10" t="n">
         <v>477593.2635158155</v>
@@ -8020,10 +8020,10 @@
         <v>44743</v>
       </c>
       <c r="B11" t="n">
-        <v>503399.1920214487</v>
+        <v>511264.3941859092</v>
       </c>
       <c r="C11" t="n">
-        <v>501733.1196039883</v>
+        <v>508942.8882547438</v>
       </c>
       <c r="D11" t="n">
         <v>483406.3230119236</v>
@@ -8034,10 +8034,10 @@
         <v>44774</v>
       </c>
       <c r="B12" t="n">
-        <v>469092.7629673312</v>
+        <v>468785.7412514834</v>
       </c>
       <c r="C12" t="n">
-        <v>466419.8481923906</v>
+        <v>466138.4116195302</v>
       </c>
       <c r="D12" t="n">
         <v>437017.785668045</v>
@@ -8048,10 +8048,10 @@
         <v>44805</v>
       </c>
       <c r="B13" t="n">
-        <v>446090.2017334021</v>
+        <v>441616.324971268</v>
       </c>
       <c r="C13" t="n">
-        <v>440975.6821170748</v>
+        <v>436874.6284184519</v>
       </c>
       <c r="D13" t="n">
         <v>384715.9663374752</v>
@@ -8062,10 +8062,10 @@
         <v>44835</v>
       </c>
       <c r="B14" t="n">
-        <v>476422.7025118289</v>
+        <v>485363.1332875211</v>
       </c>
       <c r="C14" t="n">
-        <v>473347.3432667574</v>
+        <v>481542.7381444754</v>
       </c>
       <c r="D14" t="n">
         <v>439518.3915709725</v>
@@ -8076,10 +8076,10 @@
         <v>44866</v>
       </c>
       <c r="B15" t="n">
-        <v>474758.2304039822</v>
+        <v>481940.4274856345</v>
       </c>
       <c r="C15" t="n">
-        <v>470835.0939498886</v>
+        <v>477418.7746080698</v>
       </c>
       <c r="D15" t="n">
         <v>427680.5929548584</v>
@@ -8090,10 +8090,10 @@
         <v>44896</v>
       </c>
       <c r="B16" t="n">
-        <v>482183.4170653643</v>
+        <v>498585.2524373799</v>
       </c>
       <c r="C16" t="n">
-        <v>478598.1131679849</v>
+        <v>493633.1289256657</v>
       </c>
       <c r="D16" t="n">
         <v>439159.770296811</v>
@@ -8104,10 +8104,10 @@
         <v>44927</v>
       </c>
       <c r="B17" t="n">
-        <v>437938.3275992719</v>
+        <v>452463.2261637446</v>
       </c>
       <c r="C17" t="n">
-        <v>433920.5454027359</v>
+        <v>447235.0357535026</v>
       </c>
       <c r="D17" t="n">
         <v>389724.9412408409</v>
@@ -8118,10 +8118,10 @@
         <v>44958</v>
       </c>
       <c r="B18" t="n">
-        <v>418125.209750586</v>
+        <v>432752.8502254629</v>
       </c>
       <c r="C18" t="n">
-        <v>414289.4035395106</v>
+        <v>427698.0739748145</v>
       </c>
       <c r="D18" t="n">
         <v>372095.5352176824</v>
@@ -8132,10 +8132,10 @@
         <v>44986</v>
       </c>
       <c r="B19" t="n">
-        <v>451094.0543323429</v>
+        <v>479026.1056647842</v>
       </c>
       <c r="C19" t="n">
-        <v>450325.7650853123</v>
+        <v>475930.1454733835</v>
       </c>
       <c r="D19" t="n">
         <v>441874.583367976</v>
@@ -8146,10 +8146,10 @@
         <v>45017</v>
       </c>
       <c r="B20" t="n">
-        <v>447238.7861574884</v>
+        <v>445797.6534053767</v>
       </c>
       <c r="C20" t="n">
-        <v>444533.961433134</v>
+        <v>443212.9230770316</v>
       </c>
       <c r="D20" t="n">
         <v>414780.8894652357</v>
@@ -8160,10 +8160,10 @@
         <v>45047</v>
       </c>
       <c r="B21" t="n">
-        <v>472084.3713869698</v>
+        <v>471094.1321156229</v>
       </c>
       <c r="C21" t="n">
-        <v>469451.2085889929</v>
+        <v>468543.4892569249</v>
       </c>
       <c r="D21" t="n">
         <v>440486.4178112474</v>
@@ -8174,10 +8174,10 @@
         <v>45078</v>
       </c>
       <c r="B22" t="n">
-        <v>490009.2938576797</v>
+        <v>505399.1641754291</v>
       </c>
       <c r="C22" t="n">
-        <v>488024.1870647254</v>
+        <v>502131.5681893291</v>
       </c>
       <c r="D22" t="n">
         <v>466188.0123422284</v>
@@ -8188,10 +8188,10 @@
         <v>45108</v>
       </c>
       <c r="B23" t="n">
-        <v>498803.0921803348</v>
+        <v>513057.7965767194</v>
       </c>
       <c r="C23" t="n">
-        <v>496585.9901043322</v>
+        <v>509652.8024676847</v>
       </c>
       <c r="D23" t="n">
         <v>472197.8672683028</v>
@@ -8202,10 +8202,10 @@
         <v>45139</v>
       </c>
       <c r="B24" t="n">
-        <v>467026.4581977816</v>
+        <v>472214.5466970242</v>
       </c>
       <c r="C24" t="n">
-        <v>463593.2178284816</v>
+        <v>468348.965619454</v>
       </c>
       <c r="D24" t="n">
         <v>425827.5737661824</v>
@@ -8216,10 +8216,10 @@
         <v>45170</v>
       </c>
       <c r="B25" t="n">
-        <v>445720.2998557267</v>
+        <v>446092.7831146414</v>
       </c>
       <c r="C25" t="n">
-        <v>439837.1269593864</v>
+        <v>440178.5699467249</v>
       </c>
       <c r="D25" t="n">
         <v>375122.2250996434</v>
@@ -8230,10 +8230,10 @@
         <v>45200</v>
       </c>
       <c r="B26" t="n">
-        <v>473815.3519103018</v>
+        <v>488167.7226727538</v>
       </c>
       <c r="C26" t="n">
-        <v>470166.3922908991</v>
+        <v>483322.73215648</v>
       </c>
       <c r="D26" t="n">
         <v>430027.836477469</v>
@@ -8244,10 +8244,10 @@
         <v>45231</v>
       </c>
       <c r="B27" t="n">
-        <v>472273.6045976502</v>
+        <v>484880.9039528659</v>
       </c>
       <c r="C27" t="n">
-        <v>467734.3734320755</v>
+        <v>479291.0645076898</v>
       </c>
       <c r="D27" t="n">
         <v>417802.830610753</v>
@@ -8258,10 +8258,10 @@
         <v>45261</v>
       </c>
       <c r="B28" t="n">
-        <v>479151.0874686522</v>
+        <v>500891.7034145675</v>
       </c>
       <c r="C28" t="n">
-        <v>474976.3053039697</v>
+        <v>494905.203254392</v>
       </c>
       <c r="D28" t="n">
         <v>429053.7014924617</v>
@@ -8272,10 +8272,10 @@
         <v>45292</v>
       </c>
       <c r="B29" t="n">
-        <v>438169.5220081036</v>
+        <v>456541.5244701207</v>
       </c>
       <c r="C29" t="n">
-        <v>433214.9555493942</v>
+        <v>450055.9578062433</v>
       </c>
       <c r="D29" t="n">
         <v>378714.7245035926</v>
@@ -8286,10 +8286,10 @@
         <v>45323</v>
       </c>
       <c r="B30" t="n">
-        <v>419817.8227747418</v>
+        <v>437589.9878486742</v>
       </c>
       <c r="C30" t="n">
-        <v>414936.1352731406</v>
+        <v>431227.286590912</v>
       </c>
       <c r="D30" t="n">
         <v>361237.5727555279</v>
@@ -8300,10 +8300,10 @@
         <v>45352</v>
       </c>
       <c r="B31" t="n">
-        <v>450354.873276978</v>
+        <v>482092.0095759913</v>
       </c>
       <c r="C31" t="n">
-        <v>449146.646270207</v>
+        <v>478239.0212109691</v>
       </c>
       <c r="D31" t="n">
         <v>435856.1491957253</v>
@@ -8314,10 +8314,10 @@
         <v>45383</v>
       </c>
       <c r="B32" t="n">
-        <v>446783.9703491495</v>
+        <v>450139.9372026427</v>
       </c>
       <c r="C32" t="n">
-        <v>442825.4771943933</v>
+        <v>445901.7801434287</v>
       </c>
       <c r="D32" t="n">
         <v>399282.052492075</v>
@@ -8328,10 +8328,10 @@
         <v>45413</v>
       </c>
       <c r="B33" t="n">
-        <v>469796.936908261</v>
+        <v>474468.7618099692</v>
       </c>
       <c r="C33" t="n">
-        <v>466146.9316095882</v>
+        <v>470429.4377694873</v>
       </c>
       <c r="D33" t="n">
         <v>425996.8733241866</v>
@@ -8342,10 +8342,10 @@
         <v>45444</v>
       </c>
       <c r="B34" t="n">
-        <v>486399.7111809888</v>
+        <v>507460.5082730801</v>
       </c>
       <c r="C34" t="n">
-        <v>484110.2488040577</v>
+        <v>503415.979471808</v>
       </c>
       <c r="D34" t="n">
         <v>458926.1626578153</v>
@@ -8356,10 +8356,10 @@
         <v>45474</v>
       </c>
       <c r="B35" t="n">
-        <v>494544.8760443426</v>
+        <v>514827.2002479465</v>
       </c>
       <c r="C35" t="n">
-        <v>492037.9966867598</v>
+        <v>510630.12720673</v>
       </c>
       <c r="D35" t="n">
         <v>464462.3237533479</v>
@@ -8370,10 +8370,10 @@
         <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>465112.0968767363</v>
+        <v>475551.2816677869</v>
       </c>
       <c r="C36" t="n">
-        <v>461201.2454344934</v>
+        <v>470770.4981596232</v>
       </c>
       <c r="D36" t="n">
         <v>418181.8795698219</v>
@@ -8384,10 +8384,10 @@
         <v>45536</v>
       </c>
       <c r="B37" t="n">
-        <v>445377.4876794575</v>
+        <v>450432.2774135823</v>
       </c>
       <c r="C37" t="n">
-        <v>438493.4331958096</v>
+        <v>443126.9904520906</v>
       </c>
       <c r="D37" t="n">
         <v>362768.8338756828</v>
@@ -8398,10 +8398,10 @@
         <v>45566</v>
       </c>
       <c r="B38" t="n">
-        <v>471400.2395761514</v>
+        <v>490895.2839687266</v>
       </c>
       <c r="C38" t="n">
-        <v>466880.1198941019</v>
+        <v>484750.5772539625</v>
       </c>
       <c r="D38" t="n">
         <v>417158.8033915573</v>
@@ -8412,10 +8412,10 @@
         <v>45597</v>
       </c>
       <c r="B39" t="n">
-        <v>469972.2120442463</v>
+        <v>487735.4815588921</v>
       </c>
       <c r="C39" t="n">
-        <v>464647.4598263649</v>
+        <v>480930.4568814568</v>
       </c>
       <c r="D39" t="n">
         <v>406075.1854296692</v>

--- a/fcst_results/with_outlier_detection_series_HOU-Dom_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_HOU-Dom_results.xlsx
@@ -1245,7 +1245,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>112767.2511112216</v>
+        <v>106505.6171524627</v>
       </c>
       <c r="S2" t="n">
         <v>44709.92027999632</v>
@@ -1334,7 +1334,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>92457.40571376709</v>
+        <v>101700.8756977671</v>
       </c>
       <c r="S3" t="n">
         <v>43099.05827072069</v>
@@ -1437,7 +1437,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>141824.6474265231</v>
+        <v>192345.2742575116</v>
       </c>
       <c r="S4" t="n">
         <v>70464.43395636955</v>

--- a/fcst_results/with_outlier_detection_series_HOU-Dom_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_HOU-Dom_results.xlsx
@@ -1245,7 +1245,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>106505.6171524627</v>
+        <v>67810.1853161059</v>
       </c>
       <c r="S2" t="n">
         <v>44709.92027999632</v>
@@ -1334,7 +1334,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>101700.8756977671</v>
+        <v>94907.84748819351</v>
       </c>
       <c r="S3" t="n">
         <v>43099.05827072069</v>
@@ -1437,7 +1437,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>192345.2742575116</v>
+        <v>147581.3912200968</v>
       </c>
       <c r="S4" t="n">
         <v>70464.43395636955</v>

--- a/fcst_results/with_outlier_detection_series_HOU-Dom_results.xlsx
+++ b/fcst_results/with_outlier_detection_series_HOU-Dom_results.xlsx
@@ -1245,7 +1245,7 @@
         <v>0.95</v>
       </c>
       <c r="R2" t="n">
-        <v>67810.1853161059</v>
+        <v>85996.47060722781</v>
       </c>
       <c r="S2" t="n">
         <v>44709.92027999632</v>
@@ -1334,7 +1334,7 @@
         <v>0.95</v>
       </c>
       <c r="R3" t="n">
-        <v>94907.84748819351</v>
+        <v>65686.00238435528</v>
       </c>
       <c r="S3" t="n">
         <v>43099.05827072069</v>
@@ -1437,7 +1437,7 @@
         <v>0.95</v>
       </c>
       <c r="R4" t="n">
-        <v>147581.3912200968</v>
+        <v>197281.8576774558</v>
       </c>
       <c r="S4" t="n">
         <v>70464.43395636955</v>
